--- a/document/module3/[C0220H1] TKB Module 3 - Web Front-end Development.xlsx
+++ b/document/module3/[C0220H1] TKB Module 3 - Web Front-end Development.xlsx
@@ -1183,7 +1183,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d&quot;,&quot;dddd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1245,6 +1245,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
     </font>
+    <font/>
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -1307,6 +1308,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC2D69B"/>
         <bgColor rgb="FFC2D69B"/>
       </patternFill>
@@ -1327,12 +1334,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF548135"/>
         <bgColor rgb="FF548135"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1532,7 +1533,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="106">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1593,45 +1594,59 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="4" fillId="6" fontId="1" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="4" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="8" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="9" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="9" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="10" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1646,11 +1661,11 @@
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="3" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="11" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="9" fillId="11" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1668,21 +1683,21 @@
     <xf borderId="20" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="21" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="17" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2926,92 +2941,96 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" ht="18.0" customHeight="1">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="24">
-        <f>WORKDAY(B25,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44039</v>
-      </c>
-      <c r="C26" s="20" t="str">
+      <c r="B26" s="27">
+        <f>WORKDAY(B25,6,'Holidays 2019,2020'!$B$2:$B$18)</f>
+        <v>44046</v>
+      </c>
+      <c r="C26" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="20" t="str">
+      <c r="F26" s="26" t="str">
         <f t="shared" si="2"/>
         <v>WFD.L7</v>
       </c>
-      <c r="G26" s="23" t="str">
+      <c r="G26" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
     </row>
     <row r="27" ht="18.0" customHeight="1">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="32">
         <f>WORKDAY(B26,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44040</v>
-      </c>
-      <c r="C27" s="20" t="str">
+        <v>44047</v>
+      </c>
+      <c r="C27" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="20" t="str">
+      <c r="F27" s="31" t="str">
         <f t="shared" si="2"/>
         <v>Workshop</v>
       </c>
-      <c r="G27" s="23" t="str">
+      <c r="G27" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
     </row>
     <row r="28" ht="18.0" customHeight="1">
       <c r="A28" s="20" t="s">
@@ -3019,7 +3038,7 @@
       </c>
       <c r="B28" s="24">
         <f>WORKDAY(B27,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44041</v>
+        <v>44048</v>
       </c>
       <c r="C28" s="20" t="str">
         <f t="shared" si="1"/>
@@ -3065,7 +3084,7 @@
       </c>
       <c r="B29" s="24">
         <f>WORKDAY(B28,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44042</v>
+        <v>44049</v>
       </c>
       <c r="C29" s="20" t="str">
         <f t="shared" si="1"/>
@@ -3107,7 +3126,7 @@
       </c>
       <c r="B30" s="24">
         <f>WORKDAY(B29,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44043</v>
+        <v>44050</v>
       </c>
       <c r="C30" s="20" t="str">
         <f t="shared" si="1"/>
@@ -3153,7 +3172,7 @@
       </c>
       <c r="B31" s="24">
         <f>WORKDAY(B30,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44046</v>
+        <v>44053</v>
       </c>
       <c r="C31" s="20" t="str">
         <f t="shared" si="1"/>
@@ -3199,7 +3218,7 @@
       </c>
       <c r="B32" s="24">
         <f>WORKDAY(B31,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44047</v>
+        <v>44054</v>
       </c>
       <c r="C32" s="20" t="str">
         <f t="shared" si="1"/>
@@ -3241,7 +3260,7 @@
       </c>
       <c r="B33" s="24">
         <f>WORKDAY(B32,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44048</v>
+        <v>44055</v>
       </c>
       <c r="C33" s="20" t="str">
         <f t="shared" si="1"/>
@@ -3261,7 +3280,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H33" s="26"/>
+      <c r="H33" s="36"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3283,16 +3302,16 @@
       </c>
       <c r="B34" s="24">
         <f>WORKDAY(B33,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44049</v>
+        <v>44056</v>
       </c>
       <c r="C34" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="28"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="20" t="str">
         <f t="shared" si="2"/>
         <v>Workshop</v>
@@ -3301,7 +3320,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H34" s="26"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3327,16 +3346,16 @@
       </c>
       <c r="B35" s="24">
         <f>WORKDAY(B34,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44050</v>
+        <v>44057</v>
       </c>
       <c r="C35" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="20" t="str">
         <f t="shared" si="2"/>
         <v>Restro Coach</v>
@@ -3368,22 +3387,22 @@
       </c>
       <c r="B36" s="24">
         <f>WORKDAY(B35,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44053</v>
+        <v>44060</v>
       </c>
       <c r="C36" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="39" t="s">
         <v>75</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="40" t="s">
         <v>77</v>
       </c>
       <c r="H36" s="1"/>
@@ -3429,8 +3448,8 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" ht="18.0" customHeight="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="41"/>
+      <c r="B38" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3488,7 +3507,7 @@
     </row>
     <row r="40" ht="18.0" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="43" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -3517,7 +3536,7 @@
     </row>
     <row r="41" ht="18.0" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="44" t="s">
         <v>84</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -9413,13 +9432,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="45" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="2"/>
@@ -9447,13 +9466,13 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="36">
+      <c r="A2" s="46">
         <v>1.0</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="47">
         <v>43831.0</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="46" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="2"/>
@@ -9481,13 +9500,13 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="36">
+      <c r="A3" s="46">
         <v>2.0</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="47">
         <v>43830.0</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="46" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="2"/>
@@ -9515,13 +9534,13 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="36">
+      <c r="A4" s="46">
         <v>3.0</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="47">
         <v>43831.0</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="2"/>
@@ -9549,13 +9568,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="36">
+      <c r="A5" s="46">
         <v>4.0</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="47">
         <v>43850.0</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="2"/>
@@ -9583,13 +9602,13 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="36">
+      <c r="A6" s="46">
         <v>5.0</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="47">
         <v>43851.0</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="2"/>
@@ -9617,13 +9636,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="36">
+      <c r="A7" s="46">
         <v>6.0</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="47">
         <v>43852.0</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="2"/>
@@ -9651,13 +9670,13 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="36">
+      <c r="A8" s="46">
         <v>7.0</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="47">
         <v>43853.0</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="2"/>
@@ -9685,13 +9704,13 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="36">
+      <c r="A9" s="46">
         <v>8.0</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="47">
         <v>43854.0</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="2"/>
@@ -9719,13 +9738,13 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="15.0" customHeight="1">
-      <c r="A10" s="36">
+      <c r="A10" s="46">
         <v>9.0</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="47">
         <v>43857.0</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="2"/>
@@ -9753,13 +9772,13 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="15.0" customHeight="1">
-      <c r="A11" s="36">
+      <c r="A11" s="46">
         <v>10.0</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="47">
         <v>43858.0</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="2"/>
@@ -9787,13 +9806,13 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="15.0" customHeight="1">
-      <c r="A12" s="36">
+      <c r="A12" s="46">
         <v>11.0</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="47">
         <v>43859.0</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="2"/>
@@ -9821,13 +9840,13 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
-      <c r="A13" s="36">
+      <c r="A13" s="46">
         <v>12.0</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="47">
         <v>43860.0</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D13" s="2"/>
@@ -9855,13 +9874,13 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="15.0" customHeight="1">
-      <c r="A14" s="36">
+      <c r="A14" s="46">
         <v>13.0</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="47">
         <v>43861.0</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="2"/>
@@ -9889,13 +9908,13 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="36">
+      <c r="A15" s="46">
         <v>14.0</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="47">
         <v>43936.0</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="46" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="2"/>
@@ -9923,13 +9942,13 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
-      <c r="A16" s="36">
+      <c r="A16" s="46">
         <v>15.0</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="47">
         <v>43951.0</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="46" t="s">
         <v>98</v>
       </c>
       <c r="D16" s="2"/>
@@ -9957,13 +9976,13 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="36">
+      <c r="A17" s="46">
         <v>16.0</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="47">
         <v>43952.0</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="46" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="2"/>
@@ -9991,13 +10010,13 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="36">
+      <c r="A18" s="46">
         <v>17.0</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="47">
         <v>44076.0</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="46" t="s">
         <v>100</v>
       </c>
       <c r="D18" s="2"/>
@@ -37585,7 +37604,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="48" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="1"/>
@@ -37600,11 +37619,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="39"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="50" t="s">
         <v>102</v>
       </c>
       <c r="F4" s="1"/>
@@ -37777,7 +37796,7 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -37792,25 +37811,25 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="55" t="s">
         <v>115</v>
       </c>
       <c r="H12" s="1"/>
@@ -37823,26 +37842,26 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="58">
         <v>43252.0</v>
       </c>
-      <c r="D13" s="49" t="str">
+      <c r="D13" s="59" t="str">
         <f t="shared" ref="D13:D135" si="1">TEXT(C13,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="60" t="s">
         <v>133</v>
       </c>
       <c r="H13" s="1"/>
@@ -37855,11 +37874,11 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="61">
         <f t="shared" ref="C14:C135" si="2">IF(TEXT(C13+1,"ddd")="sat",C13+3,IF(TEXT(C13+1,"ddd")="sun",C13+2,C13+1))</f>
         <v>43255</v>
       </c>
@@ -37873,7 +37892,7 @@
       <c r="F14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="62" t="s">
         <v>133</v>
       </c>
       <c r="H14" s="1"/>
@@ -37886,11 +37905,11 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="61">
         <f t="shared" si="2"/>
         <v>43256</v>
       </c>
@@ -37904,7 +37923,7 @@
       <c r="F15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="62" t="s">
         <v>135</v>
       </c>
       <c r="H15" s="1"/>
@@ -37917,11 +37936,11 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="61">
         <f t="shared" si="2"/>
         <v>43257</v>
       </c>
@@ -37935,7 +37954,7 @@
       <c r="F16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="62" t="s">
         <v>135</v>
       </c>
       <c r="H16" s="1"/>
@@ -37948,25 +37967,25 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="64">
         <f t="shared" si="2"/>
         <v>43258</v>
       </c>
-      <c r="D17" s="55" t="str">
+      <c r="D17" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="66" t="s">
         <v>137</v>
       </c>
       <c r="H17" s="1"/>
@@ -37979,25 +37998,25 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="58">
         <f t="shared" si="2"/>
         <v>43259</v>
       </c>
-      <c r="D18" s="49" t="str">
+      <c r="D18" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="60" t="s">
         <v>137</v>
       </c>
       <c r="H18" s="1"/>
@@ -38010,11 +38029,11 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="61">
         <f t="shared" si="2"/>
         <v>43262</v>
       </c>
@@ -38028,7 +38047,7 @@
       <c r="F19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="62" t="s">
         <v>139</v>
       </c>
       <c r="H19" s="1"/>
@@ -38041,11 +38060,11 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="61">
         <f t="shared" si="2"/>
         <v>43263</v>
       </c>
@@ -38059,7 +38078,7 @@
       <c r="F20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="62" t="s">
         <v>139</v>
       </c>
       <c r="H20" s="1"/>
@@ -38072,11 +38091,11 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="61">
         <f t="shared" si="2"/>
         <v>43264</v>
       </c>
@@ -38090,7 +38109,7 @@
       <c r="F21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="62" t="s">
         <v>141</v>
       </c>
       <c r="H21" s="1"/>
@@ -38103,25 +38122,25 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="64">
         <f t="shared" si="2"/>
         <v>43265</v>
       </c>
-      <c r="D22" s="55" t="str">
+      <c r="D22" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="66" t="s">
         <v>141</v>
       </c>
       <c r="H22" s="1"/>
@@ -38134,25 +38153,25 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="47" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="58">
         <f t="shared" si="2"/>
         <v>43266</v>
       </c>
-      <c r="D23" s="49" t="str">
+      <c r="D23" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="60" t="s">
         <v>145</v>
       </c>
       <c r="H23" s="1"/>
@@ -38165,11 +38184,11 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="61">
         <f t="shared" si="2"/>
         <v>43269</v>
       </c>
@@ -38183,7 +38202,7 @@
       <c r="F24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="62" t="s">
         <v>145</v>
       </c>
       <c r="H24" s="1"/>
@@ -38196,11 +38215,11 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" ht="19.5" customHeight="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="61">
         <f t="shared" si="2"/>
         <v>43270</v>
       </c>
@@ -38214,7 +38233,7 @@
       <c r="F25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="62" t="s">
         <v>147</v>
       </c>
       <c r="H25" s="1"/>
@@ -38227,11 +38246,11 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" ht="19.5" customHeight="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="61">
         <f t="shared" si="2"/>
         <v>43271</v>
       </c>
@@ -38245,7 +38264,7 @@
       <c r="F26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="62" t="s">
         <v>147</v>
       </c>
       <c r="H26" s="1"/>
@@ -38258,25 +38277,25 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" ht="19.5" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="64">
         <f t="shared" si="2"/>
         <v>43272</v>
       </c>
-      <c r="D27" s="55" t="str">
+      <c r="D27" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="66" t="s">
         <v>149</v>
       </c>
       <c r="H27" s="1"/>
@@ -38289,25 +38308,25 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" s="41"/>
-      <c r="B28" s="47" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="58">
         <f t="shared" si="2"/>
         <v>43273</v>
       </c>
-      <c r="D28" s="49" t="str">
+      <c r="D28" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="60" t="s">
         <v>149</v>
       </c>
       <c r="H28" s="1"/>
@@ -38320,11 +38339,11 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="61">
         <f t="shared" si="2"/>
         <v>43276</v>
       </c>
@@ -38338,7 +38357,7 @@
       <c r="F29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="62" t="s">
         <v>151</v>
       </c>
       <c r="H29" s="1"/>
@@ -38351,11 +38370,11 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" ht="19.5" customHeight="1">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="61">
         <f t="shared" si="2"/>
         <v>43277</v>
       </c>
@@ -38369,7 +38388,7 @@
       <c r="F30" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="62" t="s">
         <v>151</v>
       </c>
       <c r="H30" s="1"/>
@@ -38382,11 +38401,11 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" ht="19.5" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="61">
         <f t="shared" si="2"/>
         <v>43278</v>
       </c>
@@ -38400,7 +38419,7 @@
       <c r="F31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="62" t="s">
         <v>153</v>
       </c>
       <c r="H31" s="1"/>
@@ -38413,25 +38432,25 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" ht="19.5" customHeight="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="53" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32" s="64">
         <f t="shared" si="2"/>
         <v>43279</v>
       </c>
-      <c r="D32" s="55" t="str">
+      <c r="D32" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="66" t="s">
         <v>153</v>
       </c>
       <c r="H32" s="1"/>
@@ -38444,25 +38463,25 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" ht="19.5" customHeight="1">
-      <c r="A33" s="41"/>
-      <c r="B33" s="47" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="58">
         <f t="shared" si="2"/>
         <v>43280</v>
       </c>
-      <c r="D33" s="49" t="str">
+      <c r="D33" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="50" t="s">
+      <c r="G33" s="60" t="s">
         <v>157</v>
       </c>
       <c r="H33" s="1"/>
@@ -38475,11 +38494,11 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" ht="19.5" customHeight="1">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="61">
         <f t="shared" si="2"/>
         <v>43283</v>
       </c>
@@ -38493,7 +38512,7 @@
       <c r="F34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="62" t="s">
         <v>157</v>
       </c>
       <c r="H34" s="1"/>
@@ -38506,11 +38525,11 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" ht="19.5" customHeight="1">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="61">
         <f t="shared" si="2"/>
         <v>43284</v>
       </c>
@@ -38524,7 +38543,7 @@
       <c r="F35" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="62" t="s">
         <v>159</v>
       </c>
       <c r="H35" s="1"/>
@@ -38537,11 +38556,11 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" ht="19.5" customHeight="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="61">
         <f t="shared" si="2"/>
         <v>43285</v>
       </c>
@@ -38555,7 +38574,7 @@
       <c r="F36" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="62" t="s">
         <v>159</v>
       </c>
       <c r="H36" s="1"/>
@@ -38568,25 +38587,25 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" ht="19.5" customHeight="1">
-      <c r="A37" s="41"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="64">
         <f t="shared" si="2"/>
         <v>43286</v>
       </c>
-      <c r="D37" s="55" t="str">
+      <c r="D37" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="G37" s="56" t="s">
+      <c r="G37" s="66" t="s">
         <v>162</v>
       </c>
       <c r="H37" s="1"/>
@@ -38599,25 +38618,25 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" ht="19.5" customHeight="1">
-      <c r="A38" s="41"/>
-      <c r="B38" s="47" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="58">
         <f t="shared" si="2"/>
         <v>43287</v>
       </c>
-      <c r="D38" s="49" t="str">
+      <c r="D38" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="49" t="s">
+      <c r="F38" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="60" t="s">
         <v>162</v>
       </c>
       <c r="H38" s="1"/>
@@ -38630,11 +38649,11 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" ht="19.5" customHeight="1">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="61">
         <f t="shared" si="2"/>
         <v>43290</v>
       </c>
@@ -38648,7 +38667,7 @@
       <c r="F39" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="62" t="s">
         <v>166</v>
       </c>
       <c r="H39" s="1"/>
@@ -38661,11 +38680,11 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" ht="19.5" customHeight="1">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41" t="s">
+      <c r="A40" s="51"/>
+      <c r="B40" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="61">
         <f t="shared" si="2"/>
         <v>43291</v>
       </c>
@@ -38679,7 +38698,7 @@
       <c r="F40" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="52" t="s">
+      <c r="G40" s="62" t="s">
         <v>166</v>
       </c>
       <c r="H40" s="1"/>
@@ -38692,11 +38711,11 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" ht="19.5" customHeight="1">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="61">
         <f t="shared" si="2"/>
         <v>43292</v>
       </c>
@@ -38710,7 +38729,7 @@
       <c r="F41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G41" s="52" t="s">
+      <c r="G41" s="62" t="s">
         <v>170</v>
       </c>
       <c r="H41" s="1"/>
@@ -38723,25 +38742,25 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" ht="19.5" customHeight="1">
-      <c r="A42" s="41"/>
-      <c r="B42" s="53" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="54">
+      <c r="C42" s="64">
         <f t="shared" si="2"/>
         <v>43293</v>
       </c>
-      <c r="D42" s="55" t="str">
+      <c r="D42" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E42" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="F42" s="57" t="s">
+      <c r="F42" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="66" t="s">
         <v>170</v>
       </c>
       <c r="H42" s="1"/>
@@ -38754,25 +38773,25 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" ht="19.5" customHeight="1">
-      <c r="A43" s="41"/>
-      <c r="B43" s="47" t="s">
+      <c r="A43" s="51"/>
+      <c r="B43" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="48">
+      <c r="C43" s="58">
         <f t="shared" si="2"/>
         <v>43294</v>
       </c>
-      <c r="D43" s="49" t="str">
+      <c r="D43" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="60" t="s">
         <v>176</v>
       </c>
       <c r="H43" s="1"/>
@@ -38785,11 +38804,11 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" ht="19.5" customHeight="1">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41" t="s">
+      <c r="A44" s="51"/>
+      <c r="B44" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="61">
         <f t="shared" si="2"/>
         <v>43297</v>
       </c>
@@ -38803,7 +38822,7 @@
       <c r="F44" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G44" s="52" t="s">
+      <c r="G44" s="62" t="s">
         <v>176</v>
       </c>
       <c r="H44" s="1"/>
@@ -38816,11 +38835,11 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" ht="19.5" customHeight="1">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41" t="s">
+      <c r="A45" s="51"/>
+      <c r="B45" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="61">
         <f t="shared" si="2"/>
         <v>43298</v>
       </c>
@@ -38834,7 +38853,7 @@
       <c r="F45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="52" t="s">
+      <c r="G45" s="62" t="s">
         <v>180</v>
       </c>
       <c r="H45" s="1"/>
@@ -38847,11 +38866,11 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" ht="19.5" customHeight="1">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="61">
         <f t="shared" si="2"/>
         <v>43299</v>
       </c>
@@ -38865,7 +38884,7 @@
       <c r="F46" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G46" s="52" t="s">
+      <c r="G46" s="62" t="s">
         <v>180</v>
       </c>
       <c r="H46" s="1"/>
@@ -38878,25 +38897,25 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" ht="19.5" customHeight="1">
-      <c r="A47" s="41"/>
-      <c r="B47" s="53" t="s">
+      <c r="A47" s="51"/>
+      <c r="B47" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="54">
+      <c r="C47" s="64">
         <f t="shared" si="2"/>
         <v>43300</v>
       </c>
-      <c r="D47" s="55" t="str">
+      <c r="D47" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="E47" s="55" t="s">
+      <c r="E47" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="F47" s="55" t="s">
+      <c r="F47" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="66" t="s">
         <v>184</v>
       </c>
       <c r="H47" s="1"/>
@@ -38909,25 +38928,25 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" ht="19.5" customHeight="1">
-      <c r="A48" s="41"/>
-      <c r="B48" s="47" t="s">
+      <c r="A48" s="51"/>
+      <c r="B48" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="C48" s="48">
+      <c r="C48" s="58">
         <f t="shared" si="2"/>
         <v>43301</v>
       </c>
-      <c r="D48" s="49" t="str">
+      <c r="D48" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="G48" s="50" t="s">
+      <c r="G48" s="60" t="s">
         <v>184</v>
       </c>
       <c r="H48" s="1"/>
@@ -38940,11 +38959,11 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" ht="19.5" customHeight="1">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41" t="s">
+      <c r="A49" s="51"/>
+      <c r="B49" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="61">
         <f t="shared" si="2"/>
         <v>43304</v>
       </c>
@@ -38958,7 +38977,7 @@
       <c r="F49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G49" s="52" t="s">
+      <c r="G49" s="62" t="s">
         <v>188</v>
       </c>
       <c r="H49" s="1"/>
@@ -38971,11 +38990,11 @@
       <c r="O49" s="1"/>
     </row>
     <row r="50" ht="19.5" customHeight="1">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="51">
+      <c r="C50" s="61">
         <f t="shared" si="2"/>
         <v>43305</v>
       </c>
@@ -38989,7 +39008,7 @@
       <c r="F50" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G50" s="52" t="s">
+      <c r="G50" s="62" t="s">
         <v>188</v>
       </c>
       <c r="H50" s="1"/>
@@ -39002,11 +39021,11 @@
       <c r="O50" s="1"/>
     </row>
     <row r="51" ht="19.5" customHeight="1">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="61">
         <f t="shared" si="2"/>
         <v>43306</v>
       </c>
@@ -39020,7 +39039,7 @@
       <c r="F51" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G51" s="52" t="s">
+      <c r="G51" s="62" t="s">
         <v>192</v>
       </c>
       <c r="H51" s="1"/>
@@ -39033,25 +39052,25 @@
       <c r="O51" s="1"/>
     </row>
     <row r="52" ht="19.5" customHeight="1">
-      <c r="A52" s="41"/>
-      <c r="B52" s="53" t="s">
+      <c r="A52" s="51"/>
+      <c r="B52" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="64">
         <f t="shared" si="2"/>
         <v>43307</v>
       </c>
-      <c r="D52" s="55" t="str">
+      <c r="D52" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="F52" s="57" t="s">
+      <c r="F52" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="G52" s="56" t="s">
+      <c r="G52" s="66" t="s">
         <v>192</v>
       </c>
       <c r="H52" s="1"/>
@@ -39064,25 +39083,25 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" ht="19.5" customHeight="1">
-      <c r="A53" s="41"/>
-      <c r="B53" s="47" t="s">
+      <c r="A53" s="51"/>
+      <c r="B53" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="C53" s="48">
+      <c r="C53" s="58">
         <f t="shared" si="2"/>
         <v>43308</v>
       </c>
-      <c r="D53" s="49" t="str">
+      <c r="D53" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="F53" s="49" t="s">
+      <c r="F53" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="G53" s="50" t="s">
+      <c r="G53" s="60" t="s">
         <v>198</v>
       </c>
       <c r="H53" s="1"/>
@@ -39095,11 +39114,11 @@
       <c r="O53" s="1"/>
     </row>
     <row r="54" ht="19.5" customHeight="1">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="51">
+      <c r="C54" s="61">
         <f t="shared" si="2"/>
         <v>43311</v>
       </c>
@@ -39113,7 +39132,7 @@
       <c r="F54" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G54" s="52" t="s">
+      <c r="G54" s="62" t="s">
         <v>198</v>
       </c>
       <c r="H54" s="1"/>
@@ -39126,11 +39145,11 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" ht="19.5" customHeight="1">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41" t="s">
+      <c r="A55" s="51"/>
+      <c r="B55" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="61">
         <f t="shared" si="2"/>
         <v>43312</v>
       </c>
@@ -39144,7 +39163,7 @@
       <c r="F55" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G55" s="52" t="s">
+      <c r="G55" s="62" t="s">
         <v>202</v>
       </c>
       <c r="H55" s="1"/>
@@ -39157,11 +39176,11 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" ht="19.5" customHeight="1">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41" t="s">
+      <c r="A56" s="51"/>
+      <c r="B56" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="61">
         <f t="shared" si="2"/>
         <v>43313</v>
       </c>
@@ -39175,7 +39194,7 @@
       <c r="F56" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G56" s="52" t="s">
+      <c r="G56" s="62" t="s">
         <v>202</v>
       </c>
       <c r="H56" s="1"/>
@@ -39188,25 +39207,25 @@
       <c r="O56" s="1"/>
     </row>
     <row r="57" ht="19.5" customHeight="1">
-      <c r="A57" s="41"/>
-      <c r="B57" s="53" t="s">
+      <c r="A57" s="51"/>
+      <c r="B57" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="C57" s="54">
+      <c r="C57" s="64">
         <f t="shared" si="2"/>
         <v>43314</v>
       </c>
-      <c r="D57" s="55" t="str">
+      <c r="D57" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="E57" s="55" t="s">
+      <c r="E57" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="G57" s="56" t="s">
+      <c r="G57" s="66" t="s">
         <v>206</v>
       </c>
       <c r="H57" s="1"/>
@@ -39219,25 +39238,25 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" ht="19.5" customHeight="1">
-      <c r="A58" s="41"/>
-      <c r="B58" s="47" t="s">
+      <c r="A58" s="51"/>
+      <c r="B58" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="C58" s="48">
+      <c r="C58" s="58">
         <f t="shared" si="2"/>
         <v>43315</v>
       </c>
-      <c r="D58" s="49" t="str">
+      <c r="D58" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="F58" s="49" t="s">
+      <c r="F58" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="G58" s="50" t="s">
+      <c r="G58" s="60" t="s">
         <v>206</v>
       </c>
       <c r="H58" s="1"/>
@@ -39250,11 +39269,11 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" ht="19.5" customHeight="1">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41" t="s">
+      <c r="A59" s="51"/>
+      <c r="B59" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C59" s="51">
+      <c r="C59" s="61">
         <f t="shared" si="2"/>
         <v>43318</v>
       </c>
@@ -39268,7 +39287,7 @@
       <c r="F59" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G59" s="52" t="s">
+      <c r="G59" s="62" t="s">
         <v>210</v>
       </c>
       <c r="H59" s="1"/>
@@ -39281,11 +39300,11 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" ht="19.5" customHeight="1">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41" t="s">
+      <c r="A60" s="51"/>
+      <c r="B60" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="C60" s="51">
+      <c r="C60" s="61">
         <f t="shared" si="2"/>
         <v>43319</v>
       </c>
@@ -39299,7 +39318,7 @@
       <c r="F60" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G60" s="52" t="s">
+      <c r="G60" s="62" t="s">
         <v>210</v>
       </c>
       <c r="H60" s="1"/>
@@ -39312,11 +39331,11 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" ht="19.5" customHeight="1">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41" t="s">
+      <c r="A61" s="51"/>
+      <c r="B61" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="51">
+      <c r="C61" s="61">
         <f t="shared" si="2"/>
         <v>43320</v>
       </c>
@@ -39330,7 +39349,7 @@
       <c r="F61" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G61" s="52" t="s">
+      <c r="G61" s="62" t="s">
         <v>214</v>
       </c>
       <c r="H61" s="1"/>
@@ -39343,25 +39362,25 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" ht="19.5" customHeight="1">
-      <c r="A62" s="41"/>
-      <c r="B62" s="53" t="s">
+      <c r="A62" s="51"/>
+      <c r="B62" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="C62" s="54">
+      <c r="C62" s="64">
         <f t="shared" si="2"/>
         <v>43321</v>
       </c>
-      <c r="D62" s="55" t="str">
+      <c r="D62" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="E62" s="57" t="s">
+      <c r="E62" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="57" t="s">
+      <c r="F62" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="G62" s="56" t="s">
+      <c r="G62" s="66" t="s">
         <v>214</v>
       </c>
       <c r="H62" s="1"/>
@@ -39374,25 +39393,25 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" ht="19.5" customHeight="1">
-      <c r="A63" s="53"/>
-      <c r="B63" s="58" t="s">
+      <c r="A63" s="63"/>
+      <c r="B63" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="C63" s="59">
+      <c r="C63" s="69">
         <f t="shared" si="2"/>
         <v>43322</v>
       </c>
-      <c r="D63" s="60" t="str">
+      <c r="D63" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E63" s="61" t="s">
+      <c r="E63" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="F63" s="61" t="s">
+      <c r="F63" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="G63" s="62"/>
+      <c r="G63" s="72"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -39403,27 +39422,27 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" ht="19.5" customHeight="1">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="C64" s="48">
+      <c r="C64" s="58">
         <f t="shared" si="2"/>
         <v>43325</v>
       </c>
-      <c r="D64" s="49" t="str">
+      <c r="D64" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E64" s="49" t="s">
+      <c r="E64" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="49" t="s">
+      <c r="F64" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="50" t="s">
+      <c r="G64" s="60" t="s">
         <v>28</v>
       </c>
       <c r="H64" s="1"/>
@@ -39436,11 +39455,11 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" ht="19.5" customHeight="1">
-      <c r="A65" s="63"/>
-      <c r="B65" s="41" t="s">
+      <c r="A65" s="73"/>
+      <c r="B65" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="C65" s="51">
+      <c r="C65" s="61">
         <f t="shared" si="2"/>
         <v>43326</v>
       </c>
@@ -39454,7 +39473,7 @@
       <c r="F65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G65" s="52" t="s">
+      <c r="G65" s="62" t="s">
         <v>28</v>
       </c>
       <c r="H65" s="1"/>
@@ -39467,11 +39486,11 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" ht="19.5" customHeight="1">
-      <c r="A66" s="63"/>
-      <c r="B66" s="41" t="s">
+      <c r="A66" s="73"/>
+      <c r="B66" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="C66" s="51">
+      <c r="C66" s="61">
         <f t="shared" si="2"/>
         <v>43327</v>
       </c>
@@ -39485,7 +39504,7 @@
       <c r="F66" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G66" s="52" t="s">
+      <c r="G66" s="62" t="s">
         <v>32</v>
       </c>
       <c r="H66" s="1"/>
@@ -39498,11 +39517,11 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" ht="19.5" customHeight="1">
-      <c r="A67" s="63"/>
-      <c r="B67" s="41" t="s">
+      <c r="A67" s="73"/>
+      <c r="B67" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="61">
         <f t="shared" si="2"/>
         <v>43328</v>
       </c>
@@ -39516,7 +39535,7 @@
       <c r="F67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G67" s="52" t="s">
+      <c r="G67" s="62" t="s">
         <v>32</v>
       </c>
       <c r="H67" s="1"/>
@@ -39529,25 +39548,25 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" ht="19.5" customHeight="1">
-      <c r="A68" s="63"/>
-      <c r="B68" s="53" t="s">
+      <c r="A68" s="73"/>
+      <c r="B68" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="C68" s="54">
+      <c r="C68" s="64">
         <f t="shared" si="2"/>
         <v>43329</v>
       </c>
-      <c r="D68" s="55" t="str">
+      <c r="D68" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E68" s="55" t="s">
+      <c r="E68" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F68" s="55" t="s">
+      <c r="F68" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G68" s="56" t="s">
+      <c r="G68" s="66" t="s">
         <v>36</v>
       </c>
       <c r="H68" s="1"/>
@@ -39560,25 +39579,25 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" ht="19.5" customHeight="1">
-      <c r="A69" s="64"/>
-      <c r="B69" s="47" t="s">
+      <c r="A69" s="74"/>
+      <c r="B69" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="C69" s="48">
+      <c r="C69" s="58">
         <f t="shared" si="2"/>
         <v>43332</v>
       </c>
-      <c r="D69" s="49" t="str">
+      <c r="D69" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E69" s="49" t="s">
+      <c r="E69" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F69" s="49" t="s">
+      <c r="F69" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="G69" s="50" t="s">
+      <c r="G69" s="60" t="s">
         <v>36</v>
       </c>
       <c r="H69" s="1"/>
@@ -39591,11 +39610,11 @@
       <c r="O69" s="1"/>
     </row>
     <row r="70" ht="19.5" customHeight="1">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41" t="s">
+      <c r="A70" s="51"/>
+      <c r="B70" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="C70" s="51">
+      <c r="C70" s="61">
         <f t="shared" si="2"/>
         <v>43333</v>
       </c>
@@ -39609,7 +39628,7 @@
       <c r="F70" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G70" s="52" t="s">
+      <c r="G70" s="62" t="s">
         <v>40</v>
       </c>
       <c r="H70" s="1"/>
@@ -39622,11 +39641,11 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" ht="19.5" customHeight="1">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41" t="s">
+      <c r="A71" s="51"/>
+      <c r="B71" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="C71" s="51">
+      <c r="C71" s="61">
         <f t="shared" si="2"/>
         <v>43334</v>
       </c>
@@ -39640,7 +39659,7 @@
       <c r="F71" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G71" s="52" t="s">
+      <c r="G71" s="62" t="s">
         <v>40</v>
       </c>
       <c r="H71" s="1"/>
@@ -39653,11 +39672,11 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" ht="19.5" customHeight="1">
-      <c r="A72" s="41"/>
-      <c r="B72" s="41" t="s">
+      <c r="A72" s="51"/>
+      <c r="B72" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="C72" s="51">
+      <c r="C72" s="61">
         <f t="shared" si="2"/>
         <v>43335</v>
       </c>
@@ -39671,7 +39690,7 @@
       <c r="F72" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G72" s="52" t="s">
+      <c r="G72" s="62" t="s">
         <v>46</v>
       </c>
       <c r="H72" s="1"/>
@@ -39684,25 +39703,25 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" ht="19.5" customHeight="1">
-      <c r="A73" s="41"/>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="51"/>
+      <c r="B73" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="C73" s="54">
+      <c r="C73" s="64">
         <f t="shared" si="2"/>
         <v>43336</v>
       </c>
-      <c r="D73" s="55" t="str">
+      <c r="D73" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E73" s="57" t="s">
+      <c r="E73" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="F73" s="57" t="s">
+      <c r="F73" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="G73" s="56" t="s">
+      <c r="G73" s="66" t="s">
         <v>46</v>
       </c>
       <c r="H73" s="1"/>
@@ -39715,25 +39734,25 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" ht="19.5" customHeight="1">
-      <c r="A74" s="41"/>
-      <c r="B74" s="47" t="s">
+      <c r="A74" s="51"/>
+      <c r="B74" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="C74" s="48">
+      <c r="C74" s="58">
         <f t="shared" si="2"/>
         <v>43339</v>
       </c>
-      <c r="D74" s="49" t="str">
+      <c r="D74" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E74" s="49" t="s">
+      <c r="E74" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F74" s="49" t="s">
+      <c r="F74" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="G74" s="50" t="s">
+      <c r="G74" s="60" t="s">
         <v>49</v>
       </c>
       <c r="H74" s="1"/>
@@ -39746,11 +39765,11 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" ht="19.5" customHeight="1">
-      <c r="A75" s="41"/>
-      <c r="B75" s="41" t="s">
+      <c r="A75" s="51"/>
+      <c r="B75" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="C75" s="51">
+      <c r="C75" s="61">
         <f t="shared" si="2"/>
         <v>43340</v>
       </c>
@@ -39764,7 +39783,7 @@
       <c r="F75" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G75" s="52" t="s">
+      <c r="G75" s="62" t="s">
         <v>49</v>
       </c>
       <c r="H75" s="1"/>
@@ -39777,11 +39796,11 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" ht="19.5" customHeight="1">
-      <c r="A76" s="41"/>
-      <c r="B76" s="41" t="s">
+      <c r="A76" s="51"/>
+      <c r="B76" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="C76" s="51">
+      <c r="C76" s="61">
         <f t="shared" si="2"/>
         <v>43341</v>
       </c>
@@ -39795,7 +39814,7 @@
       <c r="F76" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G76" s="52" t="s">
+      <c r="G76" s="62" t="s">
         <v>53</v>
       </c>
       <c r="H76" s="1"/>
@@ -39808,11 +39827,11 @@
       <c r="O76" s="1"/>
     </row>
     <row r="77" ht="19.5" customHeight="1">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41" t="s">
+      <c r="A77" s="51"/>
+      <c r="B77" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="C77" s="51">
+      <c r="C77" s="61">
         <f t="shared" si="2"/>
         <v>43342</v>
       </c>
@@ -39826,7 +39845,7 @@
       <c r="F77" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G77" s="52" t="s">
+      <c r="G77" s="62" t="s">
         <v>53</v>
       </c>
       <c r="H77" s="1"/>
@@ -39839,25 +39858,25 @@
       <c r="O77" s="1"/>
     </row>
     <row r="78" ht="19.5" customHeight="1">
-      <c r="A78" s="41"/>
-      <c r="B78" s="53" t="s">
+      <c r="A78" s="51"/>
+      <c r="B78" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="C78" s="54">
+      <c r="C78" s="64">
         <f t="shared" si="2"/>
         <v>43343</v>
       </c>
-      <c r="D78" s="55" t="str">
+      <c r="D78" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E78" s="55" t="s">
+      <c r="E78" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F78" s="55" t="s">
+      <c r="F78" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="G78" s="56" t="s">
+      <c r="G78" s="66" t="s">
         <v>57</v>
       </c>
       <c r="H78" s="1"/>
@@ -39870,25 +39889,25 @@
       <c r="O78" s="1"/>
     </row>
     <row r="79" ht="19.5" customHeight="1">
-      <c r="A79" s="41"/>
-      <c r="B79" s="47" t="s">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C79" s="48">
+      <c r="C79" s="58">
         <f t="shared" si="2"/>
         <v>43346</v>
       </c>
-      <c r="D79" s="49" t="str">
+      <c r="D79" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E79" s="49" t="s">
+      <c r="E79" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="49" t="s">
+      <c r="F79" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="G79" s="50" t="s">
+      <c r="G79" s="60" t="s">
         <v>57</v>
       </c>
       <c r="H79" s="1"/>
@@ -39901,11 +39920,11 @@
       <c r="O79" s="1"/>
     </row>
     <row r="80" ht="19.5" customHeight="1">
-      <c r="A80" s="41"/>
-      <c r="B80" s="41" t="s">
+      <c r="A80" s="51"/>
+      <c r="B80" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="61">
         <f t="shared" si="2"/>
         <v>43347</v>
       </c>
@@ -39919,7 +39938,7 @@
       <c r="F80" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G80" s="52" t="s">
+      <c r="G80" s="62" t="s">
         <v>61</v>
       </c>
       <c r="H80" s="1"/>
@@ -39932,11 +39951,11 @@
       <c r="O80" s="1"/>
     </row>
     <row r="81" ht="19.5" customHeight="1">
-      <c r="A81" s="41"/>
-      <c r="B81" s="41" t="s">
+      <c r="A81" s="51"/>
+      <c r="B81" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="51">
+      <c r="C81" s="61">
         <f t="shared" si="2"/>
         <v>43348</v>
       </c>
@@ -39950,7 +39969,7 @@
       <c r="F81" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G81" s="52" t="s">
+      <c r="G81" s="62" t="s">
         <v>61</v>
       </c>
       <c r="H81" s="1"/>
@@ -39963,11 +39982,11 @@
       <c r="O81" s="1"/>
     </row>
     <row r="82" ht="19.5" customHeight="1">
-      <c r="A82" s="41"/>
-      <c r="B82" s="41" t="s">
+      <c r="A82" s="51"/>
+      <c r="B82" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="C82" s="51">
+      <c r="C82" s="61">
         <f t="shared" si="2"/>
         <v>43349</v>
       </c>
@@ -39981,7 +40000,7 @@
       <c r="F82" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G82" s="52" t="s">
+      <c r="G82" s="62" t="s">
         <v>65</v>
       </c>
       <c r="H82" s="1"/>
@@ -39994,25 +40013,25 @@
       <c r="O82" s="1"/>
     </row>
     <row r="83" ht="19.5" customHeight="1">
-      <c r="A83" s="41"/>
-      <c r="B83" s="53" t="s">
+      <c r="A83" s="51"/>
+      <c r="B83" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="54">
+      <c r="C83" s="64">
         <f t="shared" si="2"/>
         <v>43350</v>
       </c>
-      <c r="D83" s="55" t="str">
+      <c r="D83" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E83" s="57" t="s">
+      <c r="E83" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="F83" s="57" t="s">
+      <c r="F83" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="G83" s="56" t="s">
+      <c r="G83" s="66" t="s">
         <v>65</v>
       </c>
       <c r="H83" s="1"/>
@@ -40025,25 +40044,25 @@
       <c r="O83" s="1"/>
     </row>
     <row r="84" ht="19.5" customHeight="1">
-      <c r="A84" s="53"/>
-      <c r="B84" s="58" t="s">
+      <c r="A84" s="63"/>
+      <c r="B84" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="59">
+      <c r="C84" s="69">
         <f t="shared" si="2"/>
         <v>43353</v>
       </c>
-      <c r="D84" s="60" t="str">
+      <c r="D84" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E84" s="61" t="s">
+      <c r="E84" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="F84" s="61" t="s">
+      <c r="F84" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="G84" s="62"/>
+      <c r="G84" s="72"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -40054,27 +40073,27 @@
       <c r="O84" s="1"/>
     </row>
     <row r="85" ht="19.5" customHeight="1">
-      <c r="A85" s="63" t="s">
+      <c r="A85" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="B85" s="47" t="s">
+      <c r="B85" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="C85" s="48">
+      <c r="C85" s="58">
         <f t="shared" si="2"/>
         <v>43354</v>
       </c>
-      <c r="D85" s="49" t="str">
+      <c r="D85" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="E85" s="49" t="s">
+      <c r="E85" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F85" s="49" t="s">
+      <c r="F85" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="G85" s="50" t="s">
+      <c r="G85" s="60" t="s">
         <v>247</v>
       </c>
       <c r="H85" s="1"/>
@@ -40087,11 +40106,11 @@
       <c r="O85" s="1"/>
     </row>
     <row r="86" ht="19.5" customHeight="1">
-      <c r="A86" s="63"/>
-      <c r="B86" s="41" t="s">
+      <c r="A86" s="73"/>
+      <c r="B86" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="C86" s="51">
+      <c r="C86" s="61">
         <f t="shared" si="2"/>
         <v>43355</v>
       </c>
@@ -40105,7 +40124,7 @@
       <c r="F86" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G86" s="52" t="s">
+      <c r="G86" s="62" t="s">
         <v>247</v>
       </c>
       <c r="H86" s="1"/>
@@ -40118,11 +40137,11 @@
       <c r="O86" s="1"/>
     </row>
     <row r="87" ht="19.5" customHeight="1">
-      <c r="A87" s="63"/>
-      <c r="B87" s="41" t="s">
+      <c r="A87" s="73"/>
+      <c r="B87" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="C87" s="51">
+      <c r="C87" s="61">
         <f t="shared" si="2"/>
         <v>43356</v>
       </c>
@@ -40136,7 +40155,7 @@
       <c r="F87" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G87" s="52" t="s">
+      <c r="G87" s="62" t="s">
         <v>251</v>
       </c>
       <c r="H87" s="1"/>
@@ -40149,11 +40168,11 @@
       <c r="O87" s="1"/>
     </row>
     <row r="88" ht="19.5" customHeight="1">
-      <c r="A88" s="63"/>
-      <c r="B88" s="41" t="s">
+      <c r="A88" s="73"/>
+      <c r="B88" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C88" s="51">
+      <c r="C88" s="61">
         <f t="shared" si="2"/>
         <v>43357</v>
       </c>
@@ -40167,7 +40186,7 @@
       <c r="F88" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G88" s="52" t="s">
+      <c r="G88" s="62" t="s">
         <v>251</v>
       </c>
       <c r="H88" s="1"/>
@@ -40180,25 +40199,25 @@
       <c r="O88" s="1"/>
     </row>
     <row r="89" ht="19.5" customHeight="1">
-      <c r="A89" s="63"/>
-      <c r="B89" s="53" t="s">
+      <c r="A89" s="73"/>
+      <c r="B89" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="C89" s="54">
+      <c r="C89" s="64">
         <f t="shared" si="2"/>
         <v>43360</v>
       </c>
-      <c r="D89" s="55" t="str">
+      <c r="D89" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E89" s="55" t="s">
+      <c r="E89" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="F89" s="55" t="s">
+      <c r="F89" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="G89" s="56" t="s">
+      <c r="G89" s="66" t="s">
         <v>254</v>
       </c>
       <c r="H89" s="1"/>
@@ -40211,25 +40230,25 @@
       <c r="O89" s="1"/>
     </row>
     <row r="90" ht="19.5" customHeight="1">
-      <c r="A90" s="64"/>
-      <c r="B90" s="47" t="s">
+      <c r="A90" s="74"/>
+      <c r="B90" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C90" s="48">
+      <c r="C90" s="58">
         <f t="shared" si="2"/>
         <v>43361</v>
       </c>
-      <c r="D90" s="49" t="str">
+      <c r="D90" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="E90" s="49" t="s">
+      <c r="E90" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="F90" s="49" t="s">
+      <c r="F90" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="G90" s="50" t="s">
+      <c r="G90" s="60" t="s">
         <v>254</v>
       </c>
       <c r="H90" s="1"/>
@@ -40242,11 +40261,11 @@
       <c r="O90" s="1"/>
     </row>
     <row r="91" ht="19.5" customHeight="1">
-      <c r="A91" s="41"/>
-      <c r="B91" s="41" t="s">
+      <c r="A91" s="51"/>
+      <c r="B91" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C91" s="51">
+      <c r="C91" s="61">
         <f t="shared" si="2"/>
         <v>43362</v>
       </c>
@@ -40260,7 +40279,7 @@
       <c r="F91" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G91" s="52" t="s">
+      <c r="G91" s="62" t="s">
         <v>257</v>
       </c>
       <c r="H91" s="1"/>
@@ -40273,11 +40292,11 @@
       <c r="O91" s="1"/>
     </row>
     <row r="92" ht="19.5" customHeight="1">
-      <c r="A92" s="41"/>
-      <c r="B92" s="41" t="s">
+      <c r="A92" s="51"/>
+      <c r="B92" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="C92" s="51">
+      <c r="C92" s="61">
         <f t="shared" si="2"/>
         <v>43363</v>
       </c>
@@ -40291,7 +40310,7 @@
       <c r="F92" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G92" s="52" t="s">
+      <c r="G92" s="62" t="s">
         <v>257</v>
       </c>
       <c r="H92" s="1"/>
@@ -40304,11 +40323,11 @@
       <c r="O92" s="1"/>
     </row>
     <row r="93" ht="19.5" customHeight="1">
-      <c r="A93" s="41"/>
-      <c r="B93" s="41" t="s">
+      <c r="A93" s="51"/>
+      <c r="B93" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="C93" s="51">
+      <c r="C93" s="61">
         <f t="shared" si="2"/>
         <v>43364</v>
       </c>
@@ -40322,7 +40341,7 @@
       <c r="F93" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G93" s="52" t="s">
+      <c r="G93" s="62" t="s">
         <v>260</v>
       </c>
       <c r="H93" s="1"/>
@@ -40335,25 +40354,25 @@
       <c r="O93" s="1"/>
     </row>
     <row r="94" ht="19.5" customHeight="1">
-      <c r="A94" s="41"/>
-      <c r="B94" s="53" t="s">
+      <c r="A94" s="51"/>
+      <c r="B94" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="C94" s="54">
+      <c r="C94" s="64">
         <f t="shared" si="2"/>
         <v>43367</v>
       </c>
-      <c r="D94" s="55" t="str">
+      <c r="D94" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E94" s="57" t="s">
+      <c r="E94" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="F94" s="57" t="s">
+      <c r="F94" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="G94" s="56" t="s">
+      <c r="G94" s="66" t="s">
         <v>260</v>
       </c>
       <c r="H94" s="1"/>
@@ -40366,25 +40385,25 @@
       <c r="O94" s="1"/>
     </row>
     <row r="95" ht="19.5" customHeight="1">
-      <c r="A95" s="41"/>
-      <c r="B95" s="47" t="s">
+      <c r="A95" s="51"/>
+      <c r="B95" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="C95" s="48">
+      <c r="C95" s="58">
         <f t="shared" si="2"/>
         <v>43368</v>
       </c>
-      <c r="D95" s="49" t="str">
+      <c r="D95" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="E95" s="49" t="s">
+      <c r="E95" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="F95" s="49" t="s">
+      <c r="F95" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="G95" s="50" t="s">
+      <c r="G95" s="60" t="s">
         <v>265</v>
       </c>
       <c r="H95" s="1"/>
@@ -40397,11 +40416,11 @@
       <c r="O95" s="1"/>
     </row>
     <row r="96" ht="19.5" customHeight="1">
-      <c r="A96" s="41"/>
-      <c r="B96" s="41" t="s">
+      <c r="A96" s="51"/>
+      <c r="B96" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="C96" s="51">
+      <c r="C96" s="61">
         <f t="shared" si="2"/>
         <v>43369</v>
       </c>
@@ -40415,7 +40434,7 @@
       <c r="F96" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G96" s="52" t="s">
+      <c r="G96" s="62" t="s">
         <v>265</v>
       </c>
       <c r="H96" s="1"/>
@@ -40428,11 +40447,11 @@
       <c r="O96" s="1"/>
     </row>
     <row r="97" ht="19.5" customHeight="1">
-      <c r="A97" s="41"/>
-      <c r="B97" s="41" t="s">
+      <c r="A97" s="51"/>
+      <c r="B97" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="C97" s="51">
+      <c r="C97" s="61">
         <f t="shared" si="2"/>
         <v>43370</v>
       </c>
@@ -40446,7 +40465,7 @@
       <c r="F97" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G97" s="52" t="s">
+      <c r="G97" s="62" t="s">
         <v>268</v>
       </c>
       <c r="H97" s="1"/>
@@ -40459,11 +40478,11 @@
       <c r="O97" s="1"/>
     </row>
     <row r="98" ht="19.5" customHeight="1">
-      <c r="A98" s="41"/>
-      <c r="B98" s="41" t="s">
+      <c r="A98" s="51"/>
+      <c r="B98" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C98" s="51">
+      <c r="C98" s="61">
         <f t="shared" si="2"/>
         <v>43371</v>
       </c>
@@ -40477,7 +40496,7 @@
       <c r="F98" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G98" s="52" t="s">
+      <c r="G98" s="62" t="s">
         <v>268</v>
       </c>
       <c r="H98" s="1"/>
@@ -40490,25 +40509,25 @@
       <c r="O98" s="1"/>
     </row>
     <row r="99" ht="19.5" customHeight="1">
-      <c r="A99" s="41"/>
-      <c r="B99" s="53" t="s">
+      <c r="A99" s="51"/>
+      <c r="B99" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="C99" s="54">
+      <c r="C99" s="64">
         <f t="shared" si="2"/>
         <v>43374</v>
       </c>
-      <c r="D99" s="55" t="str">
+      <c r="D99" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E99" s="55" t="s">
+      <c r="E99" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="F99" s="55" t="s">
+      <c r="F99" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="G99" s="56" t="s">
+      <c r="G99" s="66" t="s">
         <v>271</v>
       </c>
       <c r="H99" s="1"/>
@@ -40521,25 +40540,25 @@
       <c r="O99" s="1"/>
     </row>
     <row r="100" ht="19.5" customHeight="1">
-      <c r="A100" s="41"/>
-      <c r="B100" s="47" t="s">
+      <c r="A100" s="51"/>
+      <c r="B100" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="C100" s="48">
+      <c r="C100" s="58">
         <f t="shared" si="2"/>
         <v>43375</v>
       </c>
-      <c r="D100" s="49" t="str">
+      <c r="D100" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="E100" s="49" t="s">
+      <c r="E100" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="F100" s="49" t="s">
+      <c r="F100" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="G100" s="50" t="s">
+      <c r="G100" s="60" t="s">
         <v>271</v>
       </c>
       <c r="H100" s="1"/>
@@ -40552,11 +40571,11 @@
       <c r="O100" s="1"/>
     </row>
     <row r="101" ht="19.5" customHeight="1">
-      <c r="A101" s="41"/>
-      <c r="B101" s="41" t="s">
+      <c r="A101" s="51"/>
+      <c r="B101" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="C101" s="51">
+      <c r="C101" s="61">
         <f t="shared" si="2"/>
         <v>43376</v>
       </c>
@@ -40570,7 +40589,7 @@
       <c r="F101" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G101" s="52" t="s">
+      <c r="G101" s="62" t="s">
         <v>274</v>
       </c>
       <c r="H101" s="1"/>
@@ -40583,11 +40602,11 @@
       <c r="O101" s="1"/>
     </row>
     <row r="102" ht="19.5" customHeight="1">
-      <c r="A102" s="41"/>
-      <c r="B102" s="41" t="s">
+      <c r="A102" s="51"/>
+      <c r="B102" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="C102" s="51">
+      <c r="C102" s="61">
         <f t="shared" si="2"/>
         <v>43377</v>
       </c>
@@ -40601,7 +40620,7 @@
       <c r="F102" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G102" s="52" t="s">
+      <c r="G102" s="62" t="s">
         <v>274</v>
       </c>
       <c r="H102" s="1"/>
@@ -40614,11 +40633,11 @@
       <c r="O102" s="1"/>
     </row>
     <row r="103" ht="19.5" customHeight="1">
-      <c r="A103" s="41"/>
-      <c r="B103" s="41" t="s">
+      <c r="A103" s="51"/>
+      <c r="B103" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="C103" s="51">
+      <c r="C103" s="61">
         <f t="shared" si="2"/>
         <v>43378</v>
       </c>
@@ -40632,7 +40651,7 @@
       <c r="F103" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G103" s="52" t="s">
+      <c r="G103" s="62" t="s">
         <v>277</v>
       </c>
       <c r="H103" s="1"/>
@@ -40645,25 +40664,25 @@
       <c r="O103" s="1"/>
     </row>
     <row r="104" ht="19.5" customHeight="1">
-      <c r="A104" s="41"/>
-      <c r="B104" s="53" t="s">
+      <c r="A104" s="51"/>
+      <c r="B104" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="C104" s="54">
+      <c r="C104" s="64">
         <f t="shared" si="2"/>
         <v>43381</v>
       </c>
-      <c r="D104" s="55" t="str">
+      <c r="D104" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E104" s="57" t="s">
+      <c r="E104" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="F104" s="57" t="s">
+      <c r="F104" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="G104" s="56" t="s">
+      <c r="G104" s="66" t="s">
         <v>277</v>
       </c>
       <c r="H104" s="1"/>
@@ -40676,25 +40695,25 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" ht="19.5" customHeight="1">
-      <c r="A105" s="41"/>
-      <c r="B105" s="47" t="s">
+      <c r="A105" s="51"/>
+      <c r="B105" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="C105" s="48">
+      <c r="C105" s="58">
         <f t="shared" si="2"/>
         <v>43382</v>
       </c>
-      <c r="D105" s="49" t="str">
+      <c r="D105" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="E105" s="65" t="s">
+      <c r="E105" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="F105" s="65" t="s">
+      <c r="F105" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="G105" s="66"/>
+      <c r="G105" s="76"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -40705,11 +40724,11 @@
       <c r="O105" s="1"/>
     </row>
     <row r="106" ht="19.5" customHeight="1">
-      <c r="A106" s="41"/>
-      <c r="B106" s="41" t="s">
+      <c r="A106" s="51"/>
+      <c r="B106" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="C106" s="51">
+      <c r="C106" s="61">
         <f t="shared" si="2"/>
         <v>43383</v>
       </c>
@@ -40723,7 +40742,7 @@
       <c r="F106" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G106" s="52" t="s">
+      <c r="G106" s="62" t="s">
         <v>284</v>
       </c>
       <c r="H106" s="1"/>
@@ -40736,11 +40755,11 @@
       <c r="O106" s="1"/>
     </row>
     <row r="107" ht="19.5" customHeight="1">
-      <c r="A107" s="41"/>
-      <c r="B107" s="41" t="s">
+      <c r="A107" s="51"/>
+      <c r="B107" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="C107" s="51">
+      <c r="C107" s="61">
         <f t="shared" si="2"/>
         <v>43384</v>
       </c>
@@ -40754,7 +40773,7 @@
       <c r="F107" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G107" s="52" t="s">
+      <c r="G107" s="62" t="s">
         <v>284</v>
       </c>
       <c r="H107" s="1"/>
@@ -40767,11 +40786,11 @@
       <c r="O107" s="1"/>
     </row>
     <row r="108" ht="19.5" customHeight="1">
-      <c r="A108" s="41"/>
-      <c r="B108" s="41" t="s">
+      <c r="A108" s="51"/>
+      <c r="B108" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="C108" s="51">
+      <c r="C108" s="61">
         <f t="shared" si="2"/>
         <v>43385</v>
       </c>
@@ -40785,7 +40804,7 @@
       <c r="F108" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G108" s="52" t="s">
+      <c r="G108" s="62" t="s">
         <v>287</v>
       </c>
       <c r="H108" s="1"/>
@@ -40798,11 +40817,11 @@
       <c r="O108" s="1"/>
     </row>
     <row r="109" ht="19.5" customHeight="1">
-      <c r="A109" s="41"/>
-      <c r="B109" s="41" t="s">
+      <c r="A109" s="51"/>
+      <c r="B109" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="C109" s="51">
+      <c r="C109" s="61">
         <f t="shared" si="2"/>
         <v>43388</v>
       </c>
@@ -40816,7 +40835,7 @@
       <c r="F109" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G109" s="52" t="s">
+      <c r="G109" s="62" t="s">
         <v>287</v>
       </c>
       <c r="H109" s="1"/>
@@ -40829,25 +40848,25 @@
       <c r="O109" s="1"/>
     </row>
     <row r="110" ht="19.5" customHeight="1">
-      <c r="A110" s="41"/>
-      <c r="B110" s="47" t="s">
+      <c r="A110" s="51"/>
+      <c r="B110" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="C110" s="48">
+      <c r="C110" s="58">
         <f t="shared" si="2"/>
         <v>43389</v>
       </c>
-      <c r="D110" s="49" t="str">
+      <c r="D110" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="E110" s="67" t="s">
+      <c r="E110" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="F110" s="67" t="s">
+      <c r="F110" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="G110" s="68" t="s">
+      <c r="G110" s="78" t="s">
         <v>290</v>
       </c>
       <c r="H110" s="1"/>
@@ -40860,11 +40879,11 @@
       <c r="O110" s="1"/>
     </row>
     <row r="111" ht="19.5" customHeight="1">
-      <c r="A111" s="41"/>
-      <c r="B111" s="41" t="s">
+      <c r="A111" s="51"/>
+      <c r="B111" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="C111" s="51">
+      <c r="C111" s="61">
         <f t="shared" si="2"/>
         <v>43390</v>
       </c>
@@ -40872,13 +40891,13 @@
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E111" s="69" t="s">
+      <c r="E111" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="F111" s="69" t="s">
+      <c r="F111" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="G111" s="70" t="s">
+      <c r="G111" s="80" t="s">
         <v>290</v>
       </c>
       <c r="H111" s="1"/>
@@ -40891,11 +40910,11 @@
       <c r="O111" s="1"/>
     </row>
     <row r="112" ht="19.5" customHeight="1">
-      <c r="A112" s="41"/>
-      <c r="B112" s="41" t="s">
+      <c r="A112" s="51"/>
+      <c r="B112" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="C112" s="51">
+      <c r="C112" s="61">
         <f t="shared" si="2"/>
         <v>43391</v>
       </c>
@@ -40903,13 +40922,13 @@
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="E112" s="69" t="s">
+      <c r="E112" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="F112" s="69" t="s">
+      <c r="F112" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="G112" s="70" t="s">
+      <c r="G112" s="80" t="s">
         <v>293</v>
       </c>
       <c r="H112" s="1"/>
@@ -40922,11 +40941,11 @@
       <c r="O112" s="1"/>
     </row>
     <row r="113" ht="19.5" customHeight="1">
-      <c r="A113" s="41"/>
-      <c r="B113" s="41" t="s">
+      <c r="A113" s="51"/>
+      <c r="B113" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="C113" s="51">
+      <c r="C113" s="61">
         <f t="shared" si="2"/>
         <v>43392</v>
       </c>
@@ -40934,13 +40953,13 @@
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E113" s="34" t="s">
+      <c r="E113" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="F113" s="34" t="s">
+      <c r="F113" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="G113" s="71" t="s">
+      <c r="G113" s="81" t="s">
         <v>296</v>
       </c>
       <c r="H113" s="1"/>
@@ -40953,25 +40972,25 @@
       <c r="O113" s="1"/>
     </row>
     <row r="114" ht="19.5" customHeight="1">
-      <c r="A114" s="41"/>
-      <c r="B114" s="53" t="s">
+      <c r="A114" s="51"/>
+      <c r="B114" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="C114" s="54">
+      <c r="C114" s="64">
         <f t="shared" si="2"/>
         <v>43395</v>
       </c>
-      <c r="D114" s="55" t="str">
+      <c r="D114" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E114" s="57" t="s">
+      <c r="E114" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="F114" s="57" t="s">
+      <c r="F114" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="G114" s="72" t="s">
+      <c r="G114" s="82" t="s">
         <v>299</v>
       </c>
       <c r="H114" s="1"/>
@@ -40984,25 +41003,25 @@
       <c r="O114" s="1"/>
     </row>
     <row r="115" ht="19.5" customHeight="1">
-      <c r="A115" s="41"/>
-      <c r="B115" s="47" t="s">
+      <c r="A115" s="51"/>
+      <c r="B115" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="C115" s="48">
+      <c r="C115" s="58">
         <f t="shared" si="2"/>
         <v>43396</v>
       </c>
-      <c r="D115" s="49" t="str">
+      <c r="D115" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="E115" s="73" t="s">
+      <c r="E115" s="83" t="s">
         <v>301</v>
       </c>
-      <c r="F115" s="73" t="s">
+      <c r="F115" s="83" t="s">
         <v>302</v>
       </c>
-      <c r="G115" s="74" t="s">
+      <c r="G115" s="84" t="s">
         <v>302</v>
       </c>
       <c r="H115" s="1"/>
@@ -41015,11 +41034,11 @@
       <c r="O115" s="1"/>
     </row>
     <row r="116" ht="19.5" customHeight="1">
-      <c r="A116" s="41"/>
-      <c r="B116" s="41" t="s">
+      <c r="A116" s="51"/>
+      <c r="B116" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="C116" s="51">
+      <c r="C116" s="61">
         <f t="shared" si="2"/>
         <v>43397</v>
       </c>
@@ -41027,13 +41046,13 @@
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E116" s="34" t="s">
+      <c r="E116" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="F116" s="34" t="s">
+      <c r="F116" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="G116" s="71" t="s">
+      <c r="G116" s="81" t="s">
         <v>305</v>
       </c>
       <c r="H116" s="1"/>
@@ -41046,11 +41065,11 @@
       <c r="O116" s="1"/>
     </row>
     <row r="117" ht="19.5" customHeight="1">
-      <c r="A117" s="41"/>
-      <c r="B117" s="41" t="s">
+      <c r="A117" s="51"/>
+      <c r="B117" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="C117" s="51">
+      <c r="C117" s="61">
         <f t="shared" si="2"/>
         <v>43398</v>
       </c>
@@ -41058,13 +41077,13 @@
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="E117" s="34" t="s">
+      <c r="E117" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="F117" s="34" t="s">
+      <c r="F117" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="G117" s="71" t="s">
+      <c r="G117" s="81" t="s">
         <v>305</v>
       </c>
       <c r="H117" s="1"/>
@@ -41077,11 +41096,11 @@
       <c r="O117" s="1"/>
     </row>
     <row r="118" ht="19.5" customHeight="1">
-      <c r="A118" s="41"/>
-      <c r="B118" s="41" t="s">
+      <c r="A118" s="51"/>
+      <c r="B118" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="C118" s="51">
+      <c r="C118" s="61">
         <f t="shared" si="2"/>
         <v>43399</v>
       </c>
@@ -41089,13 +41108,13 @@
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E118" s="34" t="s">
+      <c r="E118" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="F118" s="34" t="s">
+      <c r="F118" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="G118" s="71" t="s">
+      <c r="G118" s="81" t="s">
         <v>309</v>
       </c>
       <c r="H118" s="1"/>
@@ -41108,25 +41127,25 @@
       <c r="O118" s="1"/>
     </row>
     <row r="119" ht="19.5" customHeight="1">
-      <c r="A119" s="41"/>
-      <c r="B119" s="53" t="s">
+      <c r="A119" s="51"/>
+      <c r="B119" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="C119" s="54">
+      <c r="C119" s="64">
         <f t="shared" si="2"/>
         <v>43402</v>
       </c>
-      <c r="D119" s="55" t="str">
+      <c r="D119" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E119" s="75" t="s">
+      <c r="E119" s="85" t="s">
         <v>311</v>
       </c>
-      <c r="F119" s="75" t="s">
+      <c r="F119" s="85" t="s">
         <v>311</v>
       </c>
-      <c r="G119" s="76" t="s">
+      <c r="G119" s="86" t="s">
         <v>311</v>
       </c>
       <c r="H119" s="1"/>
@@ -41139,25 +41158,25 @@
       <c r="O119" s="1"/>
     </row>
     <row r="120" ht="19.5" customHeight="1">
-      <c r="A120" s="41"/>
-      <c r="B120" s="47" t="s">
+      <c r="A120" s="51"/>
+      <c r="B120" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="C120" s="48">
+      <c r="C120" s="58">
         <f t="shared" si="2"/>
         <v>43403</v>
       </c>
-      <c r="D120" s="49" t="str">
+      <c r="D120" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="E120" s="77" t="s">
+      <c r="E120" s="87" t="s">
         <v>313</v>
       </c>
-      <c r="F120" s="77" t="s">
+      <c r="F120" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="G120" s="78" t="s">
+      <c r="G120" s="88" t="s">
         <v>314</v>
       </c>
       <c r="H120" s="1"/>
@@ -41170,11 +41189,11 @@
       <c r="O120" s="1"/>
     </row>
     <row r="121" ht="19.5" customHeight="1">
-      <c r="A121" s="41"/>
-      <c r="B121" s="41" t="s">
+      <c r="A121" s="51"/>
+      <c r="B121" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="C121" s="51">
+      <c r="C121" s="61">
         <f t="shared" si="2"/>
         <v>43404</v>
       </c>
@@ -41182,13 +41201,13 @@
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E121" s="79" t="s">
+      <c r="E121" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="F121" s="79" t="s">
+      <c r="F121" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="G121" s="80" t="s">
+      <c r="G121" s="90" t="s">
         <v>314</v>
       </c>
       <c r="H121" s="1"/>
@@ -41201,11 +41220,11 @@
       <c r="O121" s="1"/>
     </row>
     <row r="122" ht="19.5" customHeight="1">
-      <c r="A122" s="41"/>
-      <c r="B122" s="41" t="s">
+      <c r="A122" s="51"/>
+      <c r="B122" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="C122" s="51">
+      <c r="C122" s="61">
         <f t="shared" si="2"/>
         <v>43405</v>
       </c>
@@ -41219,7 +41238,7 @@
       <c r="F122" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G122" s="52" t="s">
+      <c r="G122" s="62" t="s">
         <v>318</v>
       </c>
       <c r="H122" s="1"/>
@@ -41232,11 +41251,11 @@
       <c r="O122" s="1"/>
     </row>
     <row r="123" ht="19.5" customHeight="1">
-      <c r="A123" s="41"/>
-      <c r="B123" s="41" t="s">
+      <c r="A123" s="51"/>
+      <c r="B123" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="C123" s="51">
+      <c r="C123" s="61">
         <f t="shared" si="2"/>
         <v>43406</v>
       </c>
@@ -41250,7 +41269,7 @@
       <c r="F123" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G123" s="52" t="s">
+      <c r="G123" s="62" t="s">
         <v>318</v>
       </c>
       <c r="H123" s="1"/>
@@ -41263,25 +41282,25 @@
       <c r="O123" s="1"/>
     </row>
     <row r="124" ht="19.5" customHeight="1">
-      <c r="A124" s="41"/>
-      <c r="B124" s="53" t="s">
+      <c r="A124" s="51"/>
+      <c r="B124" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="C124" s="54">
+      <c r="C124" s="64">
         <f t="shared" si="2"/>
         <v>43409</v>
       </c>
-      <c r="D124" s="55" t="str">
+      <c r="D124" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E124" s="55" t="s">
+      <c r="E124" s="65" t="s">
         <v>321</v>
       </c>
-      <c r="F124" s="55" t="s">
+      <c r="F124" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="G124" s="56" t="s">
+      <c r="G124" s="66" t="s">
         <v>322</v>
       </c>
       <c r="H124" s="1"/>
@@ -41294,25 +41313,25 @@
       <c r="O124" s="1"/>
     </row>
     <row r="125" ht="19.5" customHeight="1">
-      <c r="A125" s="41"/>
-      <c r="B125" s="47" t="s">
+      <c r="A125" s="51"/>
+      <c r="B125" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="C125" s="48">
+      <c r="C125" s="58">
         <f t="shared" si="2"/>
         <v>43410</v>
       </c>
-      <c r="D125" s="49" t="str">
+      <c r="D125" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="E125" s="49" t="s">
+      <c r="E125" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="F125" s="49" t="s">
+      <c r="F125" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="G125" s="50" t="s">
+      <c r="G125" s="60" t="s">
         <v>322</v>
       </c>
       <c r="H125" s="1"/>
@@ -41325,11 +41344,11 @@
       <c r="O125" s="1"/>
     </row>
     <row r="126" ht="19.5" customHeight="1">
-      <c r="A126" s="41"/>
-      <c r="B126" s="41" t="s">
+      <c r="A126" s="51"/>
+      <c r="B126" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="C126" s="51">
+      <c r="C126" s="61">
         <f t="shared" si="2"/>
         <v>43411</v>
       </c>
@@ -41337,13 +41356,13 @@
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E126" s="34" t="s">
+      <c r="E126" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="F126" s="34" t="s">
+      <c r="F126" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="G126" s="71" t="s">
+      <c r="G126" s="81" t="s">
         <v>325</v>
       </c>
       <c r="H126" s="1"/>
@@ -41356,11 +41375,11 @@
       <c r="O126" s="1"/>
     </row>
     <row r="127" ht="19.5" customHeight="1">
-      <c r="A127" s="41"/>
-      <c r="B127" s="41" t="s">
+      <c r="A127" s="51"/>
+      <c r="B127" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="C127" s="51">
+      <c r="C127" s="61">
         <f t="shared" si="2"/>
         <v>43412</v>
       </c>
@@ -41368,13 +41387,13 @@
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="E127" s="34" t="s">
+      <c r="E127" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="F127" s="34" t="s">
+      <c r="F127" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="G127" s="71" t="s">
+      <c r="G127" s="81" t="s">
         <v>325</v>
       </c>
       <c r="H127" s="1"/>
@@ -41387,11 +41406,11 @@
       <c r="O127" s="1"/>
     </row>
     <row r="128" ht="19.5" customHeight="1">
-      <c r="A128" s="41"/>
-      <c r="B128" s="41" t="s">
+      <c r="A128" s="51"/>
+      <c r="B128" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="C128" s="51">
+      <c r="C128" s="61">
         <f t="shared" si="2"/>
         <v>43413</v>
       </c>
@@ -41399,13 +41418,13 @@
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E128" s="79" t="s">
+      <c r="E128" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="F128" s="79" t="s">
+      <c r="F128" s="89" t="s">
         <v>329</v>
       </c>
-      <c r="G128" s="80" t="s">
+      <c r="G128" s="90" t="s">
         <v>329</v>
       </c>
       <c r="H128" s="1"/>
@@ -41418,25 +41437,25 @@
       <c r="O128" s="1"/>
     </row>
     <row r="129" ht="19.5" customHeight="1">
-      <c r="A129" s="41"/>
-      <c r="B129" s="53" t="s">
+      <c r="A129" s="51"/>
+      <c r="B129" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="C129" s="54">
+      <c r="C129" s="64">
         <f t="shared" si="2"/>
         <v>43416</v>
       </c>
-      <c r="D129" s="55" t="str">
+      <c r="D129" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E129" s="81" t="s">
+      <c r="E129" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="F129" s="81" t="s">
+      <c r="F129" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="G129" s="82" t="s">
+      <c r="G129" s="92" t="s">
         <v>329</v>
       </c>
       <c r="H129" s="1"/>
@@ -41449,25 +41468,25 @@
       <c r="O129" s="1"/>
     </row>
     <row r="130" ht="19.5" customHeight="1">
-      <c r="A130" s="41"/>
-      <c r="B130" s="47" t="s">
+      <c r="A130" s="51"/>
+      <c r="B130" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="C130" s="48">
+      <c r="C130" s="58">
         <f t="shared" si="2"/>
         <v>43417</v>
       </c>
-      <c r="D130" s="49" t="str">
+      <c r="D130" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="E130" s="67" t="s">
+      <c r="E130" s="77" t="s">
         <v>332</v>
       </c>
-      <c r="F130" s="67" t="s">
+      <c r="F130" s="77" t="s">
         <v>333</v>
       </c>
-      <c r="G130" s="68" t="s">
+      <c r="G130" s="78" t="s">
         <v>333</v>
       </c>
       <c r="H130" s="1"/>
@@ -41480,11 +41499,11 @@
       <c r="O130" s="1"/>
     </row>
     <row r="131" ht="19.5" customHeight="1">
-      <c r="A131" s="41"/>
-      <c r="B131" s="41" t="s">
+      <c r="A131" s="51"/>
+      <c r="B131" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="C131" s="51">
+      <c r="C131" s="61">
         <f t="shared" si="2"/>
         <v>43418</v>
       </c>
@@ -41492,13 +41511,13 @@
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E131" s="69" t="s">
+      <c r="E131" s="79" t="s">
         <v>333</v>
       </c>
-      <c r="F131" s="69" t="s">
+      <c r="F131" s="79" t="s">
         <v>333</v>
       </c>
-      <c r="G131" s="70" t="s">
+      <c r="G131" s="80" t="s">
         <v>333</v>
       </c>
       <c r="H131" s="1"/>
@@ -41511,11 +41530,11 @@
       <c r="O131" s="1"/>
     </row>
     <row r="132" ht="19.5" customHeight="1">
-      <c r="A132" s="41"/>
-      <c r="B132" s="41" t="s">
+      <c r="A132" s="51"/>
+      <c r="B132" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="C132" s="51">
+      <c r="C132" s="61">
         <f t="shared" si="2"/>
         <v>43419</v>
       </c>
@@ -41523,13 +41542,13 @@
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="E132" s="34" t="s">
+      <c r="E132" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="F132" s="34" t="s">
+      <c r="F132" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="G132" s="71" t="s">
+      <c r="G132" s="81" t="s">
         <v>336</v>
       </c>
       <c r="H132" s="1"/>
@@ -41542,11 +41561,11 @@
       <c r="O132" s="1"/>
     </row>
     <row r="133" ht="19.5" customHeight="1">
-      <c r="A133" s="41"/>
-      <c r="B133" s="41" t="s">
+      <c r="A133" s="51"/>
+      <c r="B133" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="C133" s="51">
+      <c r="C133" s="61">
         <f t="shared" si="2"/>
         <v>43420</v>
       </c>
@@ -41554,13 +41573,13 @@
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E133" s="34" t="s">
+      <c r="E133" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="F133" s="34" t="s">
+      <c r="F133" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="G133" s="71" t="s">
+      <c r="G133" s="81" t="s">
         <v>338</v>
       </c>
       <c r="H133" s="1"/>
@@ -41573,25 +41592,25 @@
       <c r="O133" s="1"/>
     </row>
     <row r="134" ht="19.5" customHeight="1">
-      <c r="A134" s="41"/>
-      <c r="B134" s="53" t="s">
+      <c r="A134" s="51"/>
+      <c r="B134" s="63" t="s">
         <v>339</v>
       </c>
-      <c r="C134" s="54">
+      <c r="C134" s="64">
         <f t="shared" si="2"/>
         <v>43423</v>
       </c>
-      <c r="D134" s="55" t="str">
+      <c r="D134" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E134" s="83" t="s">
+      <c r="E134" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="F134" s="83" t="s">
+      <c r="F134" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="G134" s="84" t="s">
+      <c r="G134" s="94" t="s">
         <v>340</v>
       </c>
       <c r="H134" s="1"/>
@@ -41604,25 +41623,25 @@
       <c r="O134" s="1"/>
     </row>
     <row r="135" ht="19.5" customHeight="1">
-      <c r="A135" s="53"/>
-      <c r="B135" s="58" t="s">
+      <c r="A135" s="63"/>
+      <c r="B135" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="C135" s="59">
+      <c r="C135" s="69">
         <f t="shared" si="2"/>
         <v>43424</v>
       </c>
-      <c r="D135" s="60" t="str">
+      <c r="D135" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="E135" s="85" t="s">
+      <c r="E135" s="95" t="s">
         <v>340</v>
       </c>
-      <c r="F135" s="85" t="s">
+      <c r="F135" s="95" t="s">
         <v>340</v>
       </c>
-      <c r="G135" s="86" t="s">
+      <c r="G135" s="96" t="s">
         <v>340</v>
       </c>
       <c r="H135" s="1"/>
@@ -41635,7 +41654,7 @@
       <c r="O135" s="1"/>
     </row>
     <row r="136" ht="19.5" customHeight="1">
-      <c r="A136" s="41"/>
+      <c r="A136" s="51"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -41652,7 +41671,7 @@
       <c r="O136" s="1"/>
     </row>
     <row r="137" ht="19.5" customHeight="1">
-      <c r="A137" s="31" t="s">
+      <c r="A137" s="41" t="s">
         <v>342</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -41697,7 +41716,7 @@
     </row>
     <row r="139" ht="19.5" customHeight="1">
       <c r="A139" s="1"/>
-      <c r="B139" s="87" t="s">
+      <c r="B139" s="97" t="s">
         <v>343</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -41718,7 +41737,7 @@
     </row>
     <row r="140" ht="19.5" customHeight="1">
       <c r="A140" s="1"/>
-      <c r="B140" s="33" t="s">
+      <c r="B140" s="43" t="s">
         <v>82</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -41802,7 +41821,7 @@
     </row>
     <row r="144" ht="19.5" customHeight="1">
       <c r="A144" s="1"/>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="44" t="s">
         <v>349</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -41844,7 +41863,7 @@
     </row>
     <row r="146" ht="19.5" customHeight="1">
       <c r="A146" s="1"/>
-      <c r="B146" s="69" t="s">
+      <c r="B146" s="79" t="s">
         <v>353</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -41886,7 +41905,7 @@
     </row>
     <row r="148" ht="19.5" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="79" t="s">
+      <c r="B148" s="89" t="s">
         <v>357</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -41906,7 +41925,7 @@
       <c r="O148" s="1"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="41"/>
+      <c r="A149" s="51"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -41923,7 +41942,7 @@
       <c r="O149" s="1"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="41"/>
+      <c r="A150" s="51"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -41940,7 +41959,7 @@
       <c r="O150" s="1"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="41"/>
+      <c r="A151" s="51"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -41957,7 +41976,7 @@
       <c r="O151" s="1"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="41"/>
+      <c r="A152" s="51"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -41974,7 +41993,7 @@
       <c r="O152" s="1"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="41"/>
+      <c r="A153" s="51"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -41991,7 +42010,7 @@
       <c r="O153" s="1"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="41"/>
+      <c r="A154" s="51"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -42008,7 +42027,7 @@
       <c r="O154" s="1"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="41"/>
+      <c r="A155" s="51"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -42025,7 +42044,7 @@
       <c r="O155" s="1"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="41"/>
+      <c r="A156" s="51"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -42042,7 +42061,7 @@
       <c r="O156" s="1"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="41"/>
+      <c r="A157" s="51"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -42059,7 +42078,7 @@
       <c r="O157" s="1"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="41"/>
+      <c r="A158" s="51"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -42076,7 +42095,7 @@
       <c r="O158" s="1"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="41"/>
+      <c r="A159" s="51"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -42093,7 +42112,7 @@
       <c r="O159" s="1"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="41"/>
+      <c r="A160" s="51"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -42110,7 +42129,7 @@
       <c r="O160" s="1"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="41"/>
+      <c r="A161" s="51"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -42127,7 +42146,7 @@
       <c r="O161" s="1"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="41"/>
+      <c r="A162" s="51"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -42144,7 +42163,7 @@
       <c r="O162" s="1"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="41"/>
+      <c r="A163" s="51"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -42161,7 +42180,7 @@
       <c r="O163" s="1"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="41"/>
+      <c r="A164" s="51"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -42178,7 +42197,7 @@
       <c r="O164" s="1"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="41"/>
+      <c r="A165" s="51"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -42195,7 +42214,7 @@
       <c r="O165" s="1"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="41"/>
+      <c r="A166" s="51"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -42212,7 +42231,7 @@
       <c r="O166" s="1"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="41"/>
+      <c r="A167" s="51"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -42229,7 +42248,7 @@
       <c r="O167" s="1"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="41"/>
+      <c r="A168" s="51"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -42246,7 +42265,7 @@
       <c r="O168" s="1"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="41"/>
+      <c r="A169" s="51"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -42263,7 +42282,7 @@
       <c r="O169" s="1"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="41"/>
+      <c r="A170" s="51"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -42280,7 +42299,7 @@
       <c r="O170" s="1"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="41"/>
+      <c r="A171" s="51"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -42297,7 +42316,7 @@
       <c r="O171" s="1"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="41"/>
+      <c r="A172" s="51"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -42314,7 +42333,7 @@
       <c r="O172" s="1"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="41"/>
+      <c r="A173" s="51"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -42331,7 +42350,7 @@
       <c r="O173" s="1"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="41"/>
+      <c r="A174" s="51"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -42348,7 +42367,7 @@
       <c r="O174" s="1"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="41"/>
+      <c r="A175" s="51"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -42365,7 +42384,7 @@
       <c r="O175" s="1"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="41"/>
+      <c r="A176" s="51"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -42382,7 +42401,7 @@
       <c r="O176" s="1"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="41"/>
+      <c r="A177" s="51"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -42399,7 +42418,7 @@
       <c r="O177" s="1"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="41"/>
+      <c r="A178" s="51"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -42416,7 +42435,7 @@
       <c r="O178" s="1"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="41"/>
+      <c r="A179" s="51"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -42433,7 +42452,7 @@
       <c r="O179" s="1"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="41"/>
+      <c r="A180" s="51"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -42450,7 +42469,7 @@
       <c r="O180" s="1"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="41"/>
+      <c r="A181" s="51"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -42467,7 +42486,7 @@
       <c r="O181" s="1"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="41"/>
+      <c r="A182" s="51"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -42484,7 +42503,7 @@
       <c r="O182" s="1"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="41"/>
+      <c r="A183" s="51"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -42501,7 +42520,7 @@
       <c r="O183" s="1"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="41"/>
+      <c r="A184" s="51"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -42518,7 +42537,7 @@
       <c r="O184" s="1"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="41"/>
+      <c r="A185" s="51"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -42535,7 +42554,7 @@
       <c r="O185" s="1"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="41"/>
+      <c r="A186" s="51"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -42552,7 +42571,7 @@
       <c r="O186" s="1"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="41"/>
+      <c r="A187" s="51"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -42569,7 +42588,7 @@
       <c r="O187" s="1"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="41"/>
+      <c r="A188" s="51"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -42586,7 +42605,7 @@
       <c r="O188" s="1"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="41"/>
+      <c r="A189" s="51"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -42603,7 +42622,7 @@
       <c r="O189" s="1"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="41"/>
+      <c r="A190" s="51"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -42620,7 +42639,7 @@
       <c r="O190" s="1"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="41"/>
+      <c r="A191" s="51"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -42637,7 +42656,7 @@
       <c r="O191" s="1"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="41"/>
+      <c r="A192" s="51"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -42654,7 +42673,7 @@
       <c r="O192" s="1"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="41"/>
+      <c r="A193" s="51"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -42671,7 +42690,7 @@
       <c r="O193" s="1"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="41"/>
+      <c r="A194" s="51"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -42688,7 +42707,7 @@
       <c r="O194" s="1"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="41"/>
+      <c r="A195" s="51"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -42705,7 +42724,7 @@
       <c r="O195" s="1"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="41"/>
+      <c r="A196" s="51"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -42722,7 +42741,7 @@
       <c r="O196" s="1"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="41"/>
+      <c r="A197" s="51"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -42739,7 +42758,7 @@
       <c r="O197" s="1"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="41"/>
+      <c r="A198" s="51"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -42756,7 +42775,7 @@
       <c r="O198" s="1"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="41"/>
+      <c r="A199" s="51"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -42773,7 +42792,7 @@
       <c r="O199" s="1"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="41"/>
+      <c r="A200" s="51"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -42790,7 +42809,7 @@
       <c r="O200" s="1"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="41"/>
+      <c r="A201" s="51"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -42807,7 +42826,7 @@
       <c r="O201" s="1"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="41"/>
+      <c r="A202" s="51"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -42824,7 +42843,7 @@
       <c r="O202" s="1"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="41"/>
+      <c r="A203" s="51"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -42841,7 +42860,7 @@
       <c r="O203" s="1"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="41"/>
+      <c r="A204" s="51"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -42858,7 +42877,7 @@
       <c r="O204" s="1"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="41"/>
+      <c r="A205" s="51"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -42875,7 +42894,7 @@
       <c r="O205" s="1"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="41"/>
+      <c r="A206" s="51"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -42892,7 +42911,7 @@
       <c r="O206" s="1"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="41"/>
+      <c r="A207" s="51"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -42909,7 +42928,7 @@
       <c r="O207" s="1"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="41"/>
+      <c r="A208" s="51"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -42926,7 +42945,7 @@
       <c r="O208" s="1"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="41"/>
+      <c r="A209" s="51"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -42943,7 +42962,7 @@
       <c r="O209" s="1"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="41"/>
+      <c r="A210" s="51"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -42960,7 +42979,7 @@
       <c r="O210" s="1"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="41"/>
+      <c r="A211" s="51"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -42977,7 +42996,7 @@
       <c r="O211" s="1"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="41"/>
+      <c r="A212" s="51"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -42994,7 +43013,7 @@
       <c r="O212" s="1"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="41"/>
+      <c r="A213" s="51"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -43011,7 +43030,7 @@
       <c r="O213" s="1"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="41"/>
+      <c r="A214" s="51"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -43028,7 +43047,7 @@
       <c r="O214" s="1"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="41"/>
+      <c r="A215" s="51"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -43045,7 +43064,7 @@
       <c r="O215" s="1"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="41"/>
+      <c r="A216" s="51"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -43062,7 +43081,7 @@
       <c r="O216" s="1"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="41"/>
+      <c r="A217" s="51"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -43079,7 +43098,7 @@
       <c r="O217" s="1"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="41"/>
+      <c r="A218" s="51"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -43096,7 +43115,7 @@
       <c r="O218" s="1"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="41"/>
+      <c r="A219" s="51"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -43113,7 +43132,7 @@
       <c r="O219" s="1"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="41"/>
+      <c r="A220" s="51"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -43130,7 +43149,7 @@
       <c r="O220" s="1"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="41"/>
+      <c r="A221" s="51"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -43147,7 +43166,7 @@
       <c r="O221" s="1"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="41"/>
+      <c r="A222" s="51"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -43164,7 +43183,7 @@
       <c r="O222" s="1"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="41"/>
+      <c r="A223" s="51"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -43181,7 +43200,7 @@
       <c r="O223" s="1"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="41"/>
+      <c r="A224" s="51"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -43198,7 +43217,7 @@
       <c r="O224" s="1"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="41"/>
+      <c r="A225" s="51"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -43215,7 +43234,7 @@
       <c r="O225" s="1"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="41"/>
+      <c r="A226" s="51"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -43232,7 +43251,7 @@
       <c r="O226" s="1"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="41"/>
+      <c r="A227" s="51"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -43249,7 +43268,7 @@
       <c r="O227" s="1"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="41"/>
+      <c r="A228" s="51"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -43266,7 +43285,7 @@
       <c r="O228" s="1"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="41"/>
+      <c r="A229" s="51"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -43283,7 +43302,7 @@
       <c r="O229" s="1"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="41"/>
+      <c r="A230" s="51"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -43300,7 +43319,7 @@
       <c r="O230" s="1"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="41"/>
+      <c r="A231" s="51"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -43317,7 +43336,7 @@
       <c r="O231" s="1"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="41"/>
+      <c r="A232" s="51"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -43334,7 +43353,7 @@
       <c r="O232" s="1"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="41"/>
+      <c r="A233" s="51"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -43351,7 +43370,7 @@
       <c r="O233" s="1"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="41"/>
+      <c r="A234" s="51"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -43368,7 +43387,7 @@
       <c r="O234" s="1"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="41"/>
+      <c r="A235" s="51"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -43385,7 +43404,7 @@
       <c r="O235" s="1"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="41"/>
+      <c r="A236" s="51"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -43402,7 +43421,7 @@
       <c r="O236" s="1"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="41"/>
+      <c r="A237" s="51"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -43419,7 +43438,7 @@
       <c r="O237" s="1"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="41"/>
+      <c r="A238" s="51"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -43436,7 +43455,7 @@
       <c r="O238" s="1"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="41"/>
+      <c r="A239" s="51"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -43453,7 +43472,7 @@
       <c r="O239" s="1"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="41"/>
+      <c r="A240" s="51"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -43470,7 +43489,7 @@
       <c r="O240" s="1"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="41"/>
+      <c r="A241" s="51"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -43487,7 +43506,7 @@
       <c r="O241" s="1"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="41"/>
+      <c r="A242" s="51"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -43504,7 +43523,7 @@
       <c r="O242" s="1"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="41"/>
+      <c r="A243" s="51"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -43521,7 +43540,7 @@
       <c r="O243" s="1"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="41"/>
+      <c r="A244" s="51"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -43538,7 +43557,7 @@
       <c r="O244" s="1"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="41"/>
+      <c r="A245" s="51"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -43555,7 +43574,7 @@
       <c r="O245" s="1"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="41"/>
+      <c r="A246" s="51"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -43572,7 +43591,7 @@
       <c r="O246" s="1"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="41"/>
+      <c r="A247" s="51"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -43589,7 +43608,7 @@
       <c r="O247" s="1"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="41"/>
+      <c r="A248" s="51"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -43606,7 +43625,7 @@
       <c r="O248" s="1"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="41"/>
+      <c r="A249" s="51"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -43623,7 +43642,7 @@
       <c r="O249" s="1"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="41"/>
+      <c r="A250" s="51"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -43640,7 +43659,7 @@
       <c r="O250" s="1"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="41"/>
+      <c r="A251" s="51"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -43657,7 +43676,7 @@
       <c r="O251" s="1"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="41"/>
+      <c r="A252" s="51"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -43674,7 +43693,7 @@
       <c r="O252" s="1"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="41"/>
+      <c r="A253" s="51"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -43691,7 +43710,7 @@
       <c r="O253" s="1"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="41"/>
+      <c r="A254" s="51"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -43708,7 +43727,7 @@
       <c r="O254" s="1"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="41"/>
+      <c r="A255" s="51"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -43725,7 +43744,7 @@
       <c r="O255" s="1"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="41"/>
+      <c r="A256" s="51"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -43742,7 +43761,7 @@
       <c r="O256" s="1"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="41"/>
+      <c r="A257" s="51"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -43759,7 +43778,7 @@
       <c r="O257" s="1"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="41"/>
+      <c r="A258" s="51"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -43776,7 +43795,7 @@
       <c r="O258" s="1"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="41"/>
+      <c r="A259" s="51"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -43793,7 +43812,7 @@
       <c r="O259" s="1"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="41"/>
+      <c r="A260" s="51"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -43810,7 +43829,7 @@
       <c r="O260" s="1"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="41"/>
+      <c r="A261" s="51"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -43827,7 +43846,7 @@
       <c r="O261" s="1"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="41"/>
+      <c r="A262" s="51"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -43844,7 +43863,7 @@
       <c r="O262" s="1"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="41"/>
+      <c r="A263" s="51"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -43861,7 +43880,7 @@
       <c r="O263" s="1"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="41"/>
+      <c r="A264" s="51"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -43878,7 +43897,7 @@
       <c r="O264" s="1"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="41"/>
+      <c r="A265" s="51"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -43895,7 +43914,7 @@
       <c r="O265" s="1"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="41"/>
+      <c r="A266" s="51"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -43912,7 +43931,7 @@
       <c r="O266" s="1"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="41"/>
+      <c r="A267" s="51"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -43929,7 +43948,7 @@
       <c r="O267" s="1"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="41"/>
+      <c r="A268" s="51"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -43946,7 +43965,7 @@
       <c r="O268" s="1"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="41"/>
+      <c r="A269" s="51"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -43963,7 +43982,7 @@
       <c r="O269" s="1"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="41"/>
+      <c r="A270" s="51"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -43980,7 +43999,7 @@
       <c r="O270" s="1"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="41"/>
+      <c r="A271" s="51"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -43997,7 +44016,7 @@
       <c r="O271" s="1"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="41"/>
+      <c r="A272" s="51"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -44014,7 +44033,7 @@
       <c r="O272" s="1"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="41"/>
+      <c r="A273" s="51"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -44031,7 +44050,7 @@
       <c r="O273" s="1"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="41"/>
+      <c r="A274" s="51"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -44048,7 +44067,7 @@
       <c r="O274" s="1"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="41"/>
+      <c r="A275" s="51"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -44065,7 +44084,7 @@
       <c r="O275" s="1"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="41"/>
+      <c r="A276" s="51"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -44082,7 +44101,7 @@
       <c r="O276" s="1"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="41"/>
+      <c r="A277" s="51"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -44099,7 +44118,7 @@
       <c r="O277" s="1"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="41"/>
+      <c r="A278" s="51"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -44116,7 +44135,7 @@
       <c r="O278" s="1"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="41"/>
+      <c r="A279" s="51"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -44133,7 +44152,7 @@
       <c r="O279" s="1"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="41"/>
+      <c r="A280" s="51"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -44150,7 +44169,7 @@
       <c r="O280" s="1"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="41"/>
+      <c r="A281" s="51"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -44167,7 +44186,7 @@
       <c r="O281" s="1"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="41"/>
+      <c r="A282" s="51"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -44184,7 +44203,7 @@
       <c r="O282" s="1"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="41"/>
+      <c r="A283" s="51"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -44201,7 +44220,7 @@
       <c r="O283" s="1"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="41"/>
+      <c r="A284" s="51"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -44218,7 +44237,7 @@
       <c r="O284" s="1"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="41"/>
+      <c r="A285" s="51"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -44235,7 +44254,7 @@
       <c r="O285" s="1"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="41"/>
+      <c r="A286" s="51"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -44252,7 +44271,7 @@
       <c r="O286" s="1"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="41"/>
+      <c r="A287" s="51"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -44269,7 +44288,7 @@
       <c r="O287" s="1"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="41"/>
+      <c r="A288" s="51"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -44286,7 +44305,7 @@
       <c r="O288" s="1"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="41"/>
+      <c r="A289" s="51"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -44303,7 +44322,7 @@
       <c r="O289" s="1"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="41"/>
+      <c r="A290" s="51"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -44320,7 +44339,7 @@
       <c r="O290" s="1"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="41"/>
+      <c r="A291" s="51"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -44337,7 +44356,7 @@
       <c r="O291" s="1"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="41"/>
+      <c r="A292" s="51"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -44354,7 +44373,7 @@
       <c r="O292" s="1"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="41"/>
+      <c r="A293" s="51"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -44371,7 +44390,7 @@
       <c r="O293" s="1"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="41"/>
+      <c r="A294" s="51"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -44388,7 +44407,7 @@
       <c r="O294" s="1"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="41"/>
+      <c r="A295" s="51"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -44405,7 +44424,7 @@
       <c r="O295" s="1"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="41"/>
+      <c r="A296" s="51"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -44422,7 +44441,7 @@
       <c r="O296" s="1"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="41"/>
+      <c r="A297" s="51"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -44439,7 +44458,7 @@
       <c r="O297" s="1"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="41"/>
+      <c r="A298" s="51"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -44456,7 +44475,7 @@
       <c r="O298" s="1"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="41"/>
+      <c r="A299" s="51"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -44473,7 +44492,7 @@
       <c r="O299" s="1"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="41"/>
+      <c r="A300" s="51"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -44490,7 +44509,7 @@
       <c r="O300" s="1"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="41"/>
+      <c r="A301" s="51"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -44507,7 +44526,7 @@
       <c r="O301" s="1"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="41"/>
+      <c r="A302" s="51"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -44524,7 +44543,7 @@
       <c r="O302" s="1"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="41"/>
+      <c r="A303" s="51"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -44541,7 +44560,7 @@
       <c r="O303" s="1"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="41"/>
+      <c r="A304" s="51"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -44558,7 +44577,7 @@
       <c r="O304" s="1"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="41"/>
+      <c r="A305" s="51"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -44575,7 +44594,7 @@
       <c r="O305" s="1"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="41"/>
+      <c r="A306" s="51"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -44592,7 +44611,7 @@
       <c r="O306" s="1"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="41"/>
+      <c r="A307" s="51"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -44609,7 +44628,7 @@
       <c r="O307" s="1"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="41"/>
+      <c r="A308" s="51"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -44626,7 +44645,7 @@
       <c r="O308" s="1"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="41"/>
+      <c r="A309" s="51"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -44643,7 +44662,7 @@
       <c r="O309" s="1"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="41"/>
+      <c r="A310" s="51"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -44660,7 +44679,7 @@
       <c r="O310" s="1"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="41"/>
+      <c r="A311" s="51"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -44677,7 +44696,7 @@
       <c r="O311" s="1"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="41"/>
+      <c r="A312" s="51"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -44694,7 +44713,7 @@
       <c r="O312" s="1"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="41"/>
+      <c r="A313" s="51"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -44711,7 +44730,7 @@
       <c r="O313" s="1"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="41"/>
+      <c r="A314" s="51"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -44728,7 +44747,7 @@
       <c r="O314" s="1"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="41"/>
+      <c r="A315" s="51"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -44745,7 +44764,7 @@
       <c r="O315" s="1"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="41"/>
+      <c r="A316" s="51"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -44762,7 +44781,7 @@
       <c r="O316" s="1"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="41"/>
+      <c r="A317" s="51"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -44779,7 +44798,7 @@
       <c r="O317" s="1"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="41"/>
+      <c r="A318" s="51"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -44796,7 +44815,7 @@
       <c r="O318" s="1"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="41"/>
+      <c r="A319" s="51"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -44813,7 +44832,7 @@
       <c r="O319" s="1"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="41"/>
+      <c r="A320" s="51"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -44830,7 +44849,7 @@
       <c r="O320" s="1"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="41"/>
+      <c r="A321" s="51"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -44847,7 +44866,7 @@
       <c r="O321" s="1"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="41"/>
+      <c r="A322" s="51"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -44864,7 +44883,7 @@
       <c r="O322" s="1"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="41"/>
+      <c r="A323" s="51"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -44881,7 +44900,7 @@
       <c r="O323" s="1"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="41"/>
+      <c r="A324" s="51"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -44898,7 +44917,7 @@
       <c r="O324" s="1"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="41"/>
+      <c r="A325" s="51"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -44915,7 +44934,7 @@
       <c r="O325" s="1"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="41"/>
+      <c r="A326" s="51"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -44932,7 +44951,7 @@
       <c r="O326" s="1"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="41"/>
+      <c r="A327" s="51"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -44949,7 +44968,7 @@
       <c r="O327" s="1"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="41"/>
+      <c r="A328" s="51"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -44966,7 +44985,7 @@
       <c r="O328" s="1"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="41"/>
+      <c r="A329" s="51"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -44983,7 +45002,7 @@
       <c r="O329" s="1"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="41"/>
+      <c r="A330" s="51"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -45000,7 +45019,7 @@
       <c r="O330" s="1"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="41"/>
+      <c r="A331" s="51"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -45017,7 +45036,7 @@
       <c r="O331" s="1"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="41"/>
+      <c r="A332" s="51"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -45034,7 +45053,7 @@
       <c r="O332" s="1"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="41"/>
+      <c r="A333" s="51"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -45051,7 +45070,7 @@
       <c r="O333" s="1"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="41"/>
+      <c r="A334" s="51"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -45068,7 +45087,7 @@
       <c r="O334" s="1"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="41"/>
+      <c r="A335" s="51"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -45085,7 +45104,7 @@
       <c r="O335" s="1"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="41"/>
+      <c r="A336" s="51"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -45102,7 +45121,7 @@
       <c r="O336" s="1"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="41"/>
+      <c r="A337" s="51"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -45119,7 +45138,7 @@
       <c r="O337" s="1"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="41"/>
+      <c r="A338" s="51"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -45136,7 +45155,7 @@
       <c r="O338" s="1"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="41"/>
+      <c r="A339" s="51"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -45153,7 +45172,7 @@
       <c r="O339" s="1"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="41"/>
+      <c r="A340" s="51"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -45170,7 +45189,7 @@
       <c r="O340" s="1"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="41"/>
+      <c r="A341" s="51"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -45187,7 +45206,7 @@
       <c r="O341" s="1"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="41"/>
+      <c r="A342" s="51"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -45204,7 +45223,7 @@
       <c r="O342" s="1"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="41"/>
+      <c r="A343" s="51"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -45221,7 +45240,7 @@
       <c r="O343" s="1"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="41"/>
+      <c r="A344" s="51"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -45238,7 +45257,7 @@
       <c r="O344" s="1"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="41"/>
+      <c r="A345" s="51"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -45255,7 +45274,7 @@
       <c r="O345" s="1"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="41"/>
+      <c r="A346" s="51"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -45272,7 +45291,7 @@
       <c r="O346" s="1"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="41"/>
+      <c r="A347" s="51"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -45289,7 +45308,7 @@
       <c r="O347" s="1"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="41"/>
+      <c r="A348" s="51"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -46008,7 +46027,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="98" t="s">
         <v>358</v>
       </c>
       <c r="F2" s="4"/>
@@ -46028,7 +46047,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="99" t="s">
         <v>360</v>
       </c>
       <c r="F3" s="1"/>
@@ -46042,7 +46061,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="49" t="s">
         <v>361</v>
       </c>
       <c r="B4" s="1"/>
@@ -46162,22 +46181,22 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="55" t="s">
         <v>367</v>
       </c>
       <c r="G10" s="1"/>
@@ -46190,23 +46209,23 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="58">
         <v>43252.0</v>
       </c>
-      <c r="D11" s="49" t="str">
+      <c r="D11" s="59" t="str">
         <f t="shared" ref="D11:D133" si="1">TEXT(C11,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="60" t="s">
         <v>133</v>
       </c>
       <c r="G11" s="1"/>
@@ -46219,11 +46238,11 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="61">
         <f t="shared" ref="C12:C133" si="2">IF(OR(TEXT(C11+2, "ddd")="sun",TEXT(C11+2, "ddd")="mon"), C11+3, C11+2)</f>
         <v>43255</v>
       </c>
@@ -46234,7 +46253,7 @@
       <c r="E12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="62" t="s">
         <v>133</v>
       </c>
       <c r="G12" s="1"/>
@@ -46247,22 +46266,22 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="53" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="64">
         <f t="shared" si="2"/>
         <v>43257</v>
       </c>
-      <c r="D13" s="55" t="str">
+      <c r="D13" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="66" t="s">
         <v>135</v>
       </c>
       <c r="G13" s="1"/>
@@ -46275,22 +46294,22 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="58">
         <f t="shared" si="2"/>
         <v>43259</v>
       </c>
-      <c r="D14" s="49" t="str">
+      <c r="D14" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="60" t="s">
         <v>135</v>
       </c>
       <c r="G14" s="1"/>
@@ -46303,11 +46322,11 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="61">
         <f t="shared" si="2"/>
         <v>43262</v>
       </c>
@@ -46318,7 +46337,7 @@
       <c r="E15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="62" t="s">
         <v>137</v>
       </c>
       <c r="G15" s="1"/>
@@ -46331,22 +46350,22 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="64">
         <f t="shared" si="2"/>
         <v>43264</v>
       </c>
-      <c r="D16" s="55" t="str">
+      <c r="D16" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="66" t="s">
         <v>137</v>
       </c>
       <c r="G16" s="1"/>
@@ -46359,22 +46378,22 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="47" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="58">
         <f t="shared" si="2"/>
         <v>43266</v>
       </c>
-      <c r="D17" s="49" t="str">
+      <c r="D17" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="60" t="s">
         <v>139</v>
       </c>
       <c r="G17" s="1"/>
@@ -46387,11 +46406,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="61">
         <f t="shared" si="2"/>
         <v>43269</v>
       </c>
@@ -46402,7 +46421,7 @@
       <c r="E18" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="62" t="s">
         <v>139</v>
       </c>
       <c r="G18" s="1"/>
@@ -46415,22 +46434,22 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="64">
         <f t="shared" si="2"/>
         <v>43271</v>
       </c>
-      <c r="D19" s="55" t="str">
+      <c r="D19" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="66" t="s">
         <v>141</v>
       </c>
       <c r="G19" s="1"/>
@@ -46443,22 +46462,22 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="47" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="58">
         <f t="shared" si="2"/>
         <v>43273</v>
       </c>
-      <c r="D20" s="49" t="str">
+      <c r="D20" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G20" s="1"/>
@@ -46471,11 +46490,11 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="61">
         <f t="shared" si="2"/>
         <v>43276</v>
       </c>
@@ -46486,7 +46505,7 @@
       <c r="E21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="62" t="s">
         <v>145</v>
       </c>
       <c r="G21" s="1"/>
@@ -46499,22 +46518,22 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="64">
         <f t="shared" si="2"/>
         <v>43278</v>
       </c>
-      <c r="D22" s="55" t="str">
+      <c r="D22" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="66" t="s">
         <v>145</v>
       </c>
       <c r="G22" s="1"/>
@@ -46527,22 +46546,22 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="47" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="58">
         <f t="shared" si="2"/>
         <v>43280</v>
       </c>
-      <c r="D23" s="49" t="str">
+      <c r="D23" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="60" t="s">
         <v>147</v>
       </c>
       <c r="G23" s="1"/>
@@ -46555,11 +46574,11 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="61">
         <f t="shared" si="2"/>
         <v>43283</v>
       </c>
@@ -46570,7 +46589,7 @@
       <c r="E24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="62" t="s">
         <v>147</v>
       </c>
       <c r="G24" s="1"/>
@@ -46583,22 +46602,22 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="64">
         <f t="shared" si="2"/>
         <v>43285</v>
       </c>
-      <c r="D25" s="55" t="str">
+      <c r="D25" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="66" t="s">
         <v>149</v>
       </c>
       <c r="G25" s="1"/>
@@ -46611,22 +46630,22 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="58">
         <f t="shared" si="2"/>
         <v>43287</v>
       </c>
-      <c r="D26" s="49" t="str">
+      <c r="D26" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="60" t="s">
         <v>149</v>
       </c>
       <c r="G26" s="1"/>
@@ -46639,11 +46658,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="61">
         <f t="shared" si="2"/>
         <v>43290</v>
       </c>
@@ -46654,7 +46673,7 @@
       <c r="E27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="62" t="s">
         <v>151</v>
       </c>
       <c r="G27" s="1"/>
@@ -46667,22 +46686,22 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="41"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="64">
         <f t="shared" si="2"/>
         <v>43292</v>
       </c>
-      <c r="D28" s="55" t="str">
+      <c r="D28" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="66" t="s">
         <v>151</v>
       </c>
       <c r="G28" s="1"/>
@@ -46695,22 +46714,22 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="47" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="58">
         <f t="shared" si="2"/>
         <v>43294</v>
       </c>
-      <c r="D29" s="49" t="str">
+      <c r="D29" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="60" t="s">
         <v>153</v>
       </c>
       <c r="G29" s="1"/>
@@ -46723,11 +46742,11 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="61">
         <f t="shared" si="2"/>
         <v>43297</v>
       </c>
@@ -46735,10 +46754,10 @@
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="71" t="s">
+      <c r="F30" s="81" t="s">
         <v>155</v>
       </c>
       <c r="G30" s="1"/>
@@ -46751,22 +46770,22 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="53" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="64">
         <f t="shared" si="2"/>
         <v>43299</v>
       </c>
-      <c r="D31" s="55" t="str">
+      <c r="D31" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="66" t="s">
         <v>157</v>
       </c>
       <c r="G31" s="1"/>
@@ -46779,22 +46798,22 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="47" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="58">
         <f t="shared" si="2"/>
         <v>43301</v>
       </c>
-      <c r="D32" s="49" t="str">
+      <c r="D32" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="60" t="s">
         <v>157</v>
       </c>
       <c r="G32" s="1"/>
@@ -46807,11 +46826,11 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="61">
         <f t="shared" si="2"/>
         <v>43304</v>
       </c>
@@ -46822,7 +46841,7 @@
       <c r="E33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="62" t="s">
         <v>159</v>
       </c>
       <c r="G33" s="1"/>
@@ -46835,22 +46854,22 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="41"/>
-      <c r="B34" s="53" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="64">
         <f t="shared" si="2"/>
         <v>43306</v>
       </c>
-      <c r="D34" s="55" t="str">
+      <c r="D34" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="66" t="s">
         <v>159</v>
       </c>
       <c r="G34" s="1"/>
@@ -46863,22 +46882,22 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="41"/>
-      <c r="B35" s="47" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="58">
         <f t="shared" si="2"/>
         <v>43308</v>
       </c>
-      <c r="D35" s="49" t="str">
+      <c r="D35" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="60" t="s">
         <v>162</v>
       </c>
       <c r="G35" s="1"/>
@@ -46891,11 +46910,11 @@
       <c r="N35" s="1"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="61">
         <f t="shared" si="2"/>
         <v>43311</v>
       </c>
@@ -46906,7 +46925,7 @@
       <c r="E36" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F36" s="52" t="s">
+      <c r="F36" s="62" t="s">
         <v>162</v>
       </c>
       <c r="G36" s="1"/>
@@ -46919,22 +46938,22 @@
       <c r="N36" s="1"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="41"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="64">
         <f t="shared" si="2"/>
         <v>43313</v>
       </c>
-      <c r="D37" s="55" t="str">
+      <c r="D37" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="F37" s="56" t="s">
+      <c r="F37" s="66" t="s">
         <v>166</v>
       </c>
       <c r="G37" s="1"/>
@@ -46947,22 +46966,22 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="41"/>
-      <c r="B38" s="47" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="58">
         <f t="shared" si="2"/>
         <v>43315</v>
       </c>
-      <c r="D38" s="49" t="str">
+      <c r="D38" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" s="60" t="s">
         <v>166</v>
       </c>
       <c r="G38" s="1"/>
@@ -46975,11 +46994,11 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="61">
         <f t="shared" si="2"/>
         <v>43318</v>
       </c>
@@ -46990,7 +47009,7 @@
       <c r="E39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="62" t="s">
         <v>170</v>
       </c>
       <c r="G39" s="1"/>
@@ -47003,22 +47022,22 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="41"/>
-      <c r="B40" s="53" t="s">
+      <c r="A40" s="51"/>
+      <c r="B40" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="64">
         <f t="shared" si="2"/>
         <v>43320</v>
       </c>
-      <c r="D40" s="55" t="str">
+      <c r="D40" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="72" t="s">
+      <c r="F40" s="82" t="s">
         <v>173</v>
       </c>
       <c r="G40" s="1"/>
@@ -47031,22 +47050,22 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="41"/>
-      <c r="B41" s="47" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="48">
+      <c r="C41" s="58">
         <f t="shared" si="2"/>
         <v>43322</v>
       </c>
-      <c r="D41" s="49" t="str">
+      <c r="D41" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="60" t="s">
         <v>176</v>
       </c>
       <c r="G41" s="1"/>
@@ -47059,11 +47078,11 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="61">
         <f t="shared" si="2"/>
         <v>43325</v>
       </c>
@@ -47074,7 +47093,7 @@
       <c r="E42" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="52" t="s">
+      <c r="F42" s="62" t="s">
         <v>176</v>
       </c>
       <c r="G42" s="1"/>
@@ -47087,22 +47106,22 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="41"/>
-      <c r="B43" s="53" t="s">
+      <c r="A43" s="51"/>
+      <c r="B43" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="54">
+      <c r="C43" s="64">
         <f t="shared" si="2"/>
         <v>43327</v>
       </c>
-      <c r="D43" s="55" t="str">
+      <c r="D43" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="66" t="s">
         <v>180</v>
       </c>
       <c r="G43" s="1"/>
@@ -47115,22 +47134,22 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="41"/>
-      <c r="B44" s="47" t="s">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="48">
+      <c r="C44" s="58">
         <f t="shared" si="2"/>
         <v>43329</v>
       </c>
-      <c r="D44" s="49" t="str">
+      <c r="D44" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="60" t="s">
         <v>180</v>
       </c>
       <c r="G44" s="1"/>
@@ -47143,11 +47162,11 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41" t="s">
+      <c r="A45" s="51"/>
+      <c r="B45" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="61">
         <f t="shared" si="2"/>
         <v>43332</v>
       </c>
@@ -47158,7 +47177,7 @@
       <c r="E45" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F45" s="52" t="s">
+      <c r="F45" s="62" t="s">
         <v>184</v>
       </c>
       <c r="G45" s="1"/>
@@ -47171,22 +47190,22 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="41"/>
-      <c r="B46" s="53" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="54">
+      <c r="C46" s="64">
         <f t="shared" si="2"/>
         <v>43334</v>
       </c>
-      <c r="D46" s="55" t="str">
+      <c r="D46" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E46" s="55" t="s">
+      <c r="E46" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="56" t="s">
+      <c r="F46" s="66" t="s">
         <v>184</v>
       </c>
       <c r="G46" s="1"/>
@@ -47199,22 +47218,22 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="41"/>
-      <c r="B47" s="47" t="s">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="48">
+      <c r="C47" s="58">
         <f t="shared" si="2"/>
         <v>43336</v>
       </c>
-      <c r="D47" s="49" t="str">
+      <c r="D47" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="F47" s="60" t="s">
         <v>188</v>
       </c>
       <c r="G47" s="1"/>
@@ -47227,11 +47246,11 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41" t="s">
+      <c r="A48" s="51"/>
+      <c r="B48" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="61">
         <f t="shared" si="2"/>
         <v>43339</v>
       </c>
@@ -47242,7 +47261,7 @@
       <c r="E48" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="52" t="s">
+      <c r="F48" s="62" t="s">
         <v>188</v>
       </c>
       <c r="G48" s="1"/>
@@ -47255,22 +47274,22 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="41"/>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="51"/>
+      <c r="B49" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="54">
+      <c r="C49" s="64">
         <f t="shared" si="2"/>
         <v>43341</v>
       </c>
-      <c r="D49" s="55" t="str">
+      <c r="D49" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="E49" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="F49" s="56" t="s">
+      <c r="F49" s="66" t="s">
         <v>192</v>
       </c>
       <c r="G49" s="1"/>
@@ -47283,22 +47302,22 @@
       <c r="N49" s="1"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="41"/>
-      <c r="B50" s="47" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="48">
+      <c r="C50" s="58">
         <f t="shared" si="2"/>
         <v>43343</v>
       </c>
-      <c r="D50" s="49" t="str">
+      <c r="D50" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E50" s="73" t="s">
+      <c r="E50" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="F50" s="74" t="s">
+      <c r="F50" s="84" t="s">
         <v>195</v>
       </c>
       <c r="G50" s="1"/>
@@ -47311,11 +47330,11 @@
       <c r="N50" s="1"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="61">
         <f t="shared" si="2"/>
         <v>43346</v>
       </c>
@@ -47326,7 +47345,7 @@
       <c r="E51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F51" s="52" t="s">
+      <c r="F51" s="62" t="s">
         <v>198</v>
       </c>
       <c r="G51" s="1"/>
@@ -47339,22 +47358,22 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="41"/>
-      <c r="B52" s="53" t="s">
+      <c r="A52" s="51"/>
+      <c r="B52" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="64">
         <f t="shared" si="2"/>
         <v>43348</v>
       </c>
-      <c r="D52" s="55" t="str">
+      <c r="D52" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E52" s="55" t="s">
+      <c r="E52" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="F52" s="56" t="s">
+      <c r="F52" s="66" t="s">
         <v>198</v>
       </c>
       <c r="G52" s="1"/>
@@ -47367,22 +47386,22 @@
       <c r="N52" s="1"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="41"/>
-      <c r="B53" s="47" t="s">
+      <c r="A53" s="51"/>
+      <c r="B53" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="48">
+      <c r="C53" s="58">
         <f t="shared" si="2"/>
         <v>43350</v>
       </c>
-      <c r="D53" s="49" t="str">
+      <c r="D53" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F53" s="50" t="s">
+      <c r="F53" s="60" t="s">
         <v>202</v>
       </c>
       <c r="G53" s="1"/>
@@ -47395,11 +47414,11 @@
       <c r="N53" s="1"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="51">
+      <c r="C54" s="61">
         <f t="shared" si="2"/>
         <v>43353</v>
       </c>
@@ -47410,7 +47429,7 @@
       <c r="E54" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="62" t="s">
         <v>202</v>
       </c>
       <c r="G54" s="1"/>
@@ -47423,22 +47442,22 @@
       <c r="N54" s="1"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="41"/>
-      <c r="B55" s="53" t="s">
+      <c r="A55" s="51"/>
+      <c r="B55" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="C55" s="54">
+      <c r="C55" s="64">
         <f t="shared" si="2"/>
         <v>43355</v>
       </c>
-      <c r="D55" s="55" t="str">
+      <c r="D55" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E55" s="55" t="s">
+      <c r="E55" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="F55" s="56" t="s">
+      <c r="F55" s="66" t="s">
         <v>206</v>
       </c>
       <c r="G55" s="1"/>
@@ -47451,22 +47470,22 @@
       <c r="N55" s="1"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="41"/>
-      <c r="B56" s="47" t="s">
+      <c r="A56" s="51"/>
+      <c r="B56" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="C56" s="48">
+      <c r="C56" s="58">
         <f t="shared" si="2"/>
         <v>43357</v>
       </c>
-      <c r="D56" s="49" t="str">
+      <c r="D56" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E56" s="49" t="s">
+      <c r="E56" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="F56" s="60" t="s">
         <v>206</v>
       </c>
       <c r="G56" s="1"/>
@@ -47479,11 +47498,11 @@
       <c r="N56" s="1"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41" t="s">
+      <c r="A57" s="51"/>
+      <c r="B57" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C57" s="51">
+      <c r="C57" s="61">
         <f t="shared" si="2"/>
         <v>43360</v>
       </c>
@@ -47494,7 +47513,7 @@
       <c r="E57" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F57" s="52" t="s">
+      <c r="F57" s="62" t="s">
         <v>210</v>
       </c>
       <c r="G57" s="1"/>
@@ -47507,22 +47526,22 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="41"/>
-      <c r="B58" s="53" t="s">
+      <c r="A58" s="51"/>
+      <c r="B58" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="C58" s="54">
+      <c r="C58" s="64">
         <f t="shared" si="2"/>
         <v>43362</v>
       </c>
-      <c r="D58" s="55" t="str">
+      <c r="D58" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="F58" s="56" t="s">
+      <c r="F58" s="66" t="s">
         <v>210</v>
       </c>
       <c r="G58" s="1"/>
@@ -47535,22 +47554,22 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="41"/>
-      <c r="B59" s="47" t="s">
+      <c r="A59" s="51"/>
+      <c r="B59" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="58">
         <f t="shared" si="2"/>
         <v>43364</v>
       </c>
-      <c r="D59" s="49" t="str">
+      <c r="D59" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E59" s="49" t="s">
+      <c r="E59" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="F59" s="50" t="s">
+      <c r="F59" s="60" t="s">
         <v>214</v>
       </c>
       <c r="G59" s="1"/>
@@ -47563,11 +47582,11 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41" t="s">
+      <c r="A60" s="51"/>
+      <c r="B60" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="C60" s="51">
+      <c r="C60" s="61">
         <f t="shared" si="2"/>
         <v>43367</v>
       </c>
@@ -47575,10 +47594,10 @@
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="F60" s="71" t="s">
+      <c r="F60" s="81" t="s">
         <v>217</v>
       </c>
       <c r="G60" s="1"/>
@@ -47591,22 +47610,22 @@
       <c r="N60" s="1"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="41"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="51"/>
+      <c r="B61" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="C61" s="54">
+      <c r="C61" s="64">
         <f t="shared" si="2"/>
         <v>43369</v>
       </c>
-      <c r="D61" s="55" t="str">
+      <c r="D61" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E61" s="90" t="s">
+      <c r="E61" s="100" t="s">
         <v>219</v>
       </c>
-      <c r="F61" s="91" t="s">
+      <c r="F61" s="101" t="s">
         <v>219</v>
       </c>
       <c r="G61" s="1"/>
@@ -47619,24 +47638,24 @@
       <c r="N61" s="1"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="C62" s="48">
+      <c r="C62" s="58">
         <f t="shared" si="2"/>
         <v>43371</v>
       </c>
-      <c r="D62" s="49" t="str">
+      <c r="D62" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E62" s="49" t="s">
+      <c r="E62" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="50" t="s">
+      <c r="F62" s="60" t="s">
         <v>28</v>
       </c>
       <c r="G62" s="1"/>
@@ -47649,11 +47668,11 @@
       <c r="N62" s="1"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="63"/>
-      <c r="B63" s="41" t="s">
+      <c r="A63" s="73"/>
+      <c r="B63" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="C63" s="51">
+      <c r="C63" s="61">
         <f t="shared" si="2"/>
         <v>43374</v>
       </c>
@@ -47664,7 +47683,7 @@
       <c r="E63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="52" t="s">
+      <c r="F63" s="62" t="s">
         <v>28</v>
       </c>
       <c r="G63" s="1"/>
@@ -47677,22 +47696,22 @@
       <c r="N63" s="1"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="63"/>
-      <c r="B64" s="53" t="s">
+      <c r="A64" s="73"/>
+      <c r="B64" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="C64" s="54">
+      <c r="C64" s="64">
         <f t="shared" si="2"/>
         <v>43376</v>
       </c>
-      <c r="D64" s="55" t="str">
+      <c r="D64" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E64" s="55" t="s">
+      <c r="E64" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F64" s="56" t="s">
+      <c r="F64" s="66" t="s">
         <v>32</v>
       </c>
       <c r="G64" s="1"/>
@@ -47705,22 +47724,22 @@
       <c r="N64" s="1"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="63"/>
-      <c r="B65" s="47" t="s">
+      <c r="A65" s="73"/>
+      <c r="B65" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="C65" s="48">
+      <c r="C65" s="58">
         <f t="shared" si="2"/>
         <v>43378</v>
       </c>
-      <c r="D65" s="49" t="str">
+      <c r="D65" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E65" s="49" t="s">
+      <c r="E65" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F65" s="50" t="s">
+      <c r="F65" s="60" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="1"/>
@@ -47733,11 +47752,11 @@
       <c r="N65" s="1"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="63"/>
-      <c r="B66" s="41" t="s">
+      <c r="A66" s="73"/>
+      <c r="B66" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="C66" s="51">
+      <c r="C66" s="61">
         <f t="shared" si="2"/>
         <v>43381</v>
       </c>
@@ -47748,7 +47767,7 @@
       <c r="E66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F66" s="52" t="s">
+      <c r="F66" s="62" t="s">
         <v>36</v>
       </c>
       <c r="G66" s="1"/>
@@ -47761,22 +47780,22 @@
       <c r="N66" s="1"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="64"/>
-      <c r="B67" s="53" t="s">
+      <c r="A67" s="74"/>
+      <c r="B67" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="C67" s="54">
+      <c r="C67" s="64">
         <f t="shared" si="2"/>
         <v>43383</v>
       </c>
-      <c r="D67" s="55" t="str">
+      <c r="D67" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E67" s="55" t="s">
+      <c r="E67" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="56" t="s">
+      <c r="F67" s="66" t="s">
         <v>36</v>
       </c>
       <c r="G67" s="1"/>
@@ -47789,22 +47808,22 @@
       <c r="N67" s="1"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="41"/>
-      <c r="B68" s="47" t="s">
+      <c r="A68" s="51"/>
+      <c r="B68" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="48">
+      <c r="C68" s="58">
         <f t="shared" si="2"/>
         <v>43385</v>
       </c>
-      <c r="D68" s="49" t="str">
+      <c r="D68" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E68" s="49" t="s">
+      <c r="E68" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F68" s="50" t="s">
+      <c r="F68" s="60" t="s">
         <v>40</v>
       </c>
       <c r="G68" s="1"/>
@@ -47817,11 +47836,11 @@
       <c r="N68" s="1"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="41"/>
-      <c r="B69" s="41" t="s">
+      <c r="A69" s="51"/>
+      <c r="B69" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="C69" s="51">
+      <c r="C69" s="61">
         <f t="shared" si="2"/>
         <v>43388</v>
       </c>
@@ -47832,7 +47851,7 @@
       <c r="E69" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F69" s="52" t="s">
+      <c r="F69" s="62" t="s">
         <v>40</v>
       </c>
       <c r="G69" s="1"/>
@@ -47845,22 +47864,22 @@
       <c r="N69" s="1"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="41"/>
-      <c r="B70" s="53" t="s">
+      <c r="A70" s="51"/>
+      <c r="B70" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="C70" s="54">
+      <c r="C70" s="64">
         <f t="shared" si="2"/>
         <v>43390</v>
       </c>
-      <c r="D70" s="55" t="str">
+      <c r="D70" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E70" s="55" t="s">
+      <c r="E70" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F70" s="56" t="s">
+      <c r="F70" s="66" t="s">
         <v>46</v>
       </c>
       <c r="G70" s="1"/>
@@ -47873,22 +47892,22 @@
       <c r="N70" s="1"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="41"/>
-      <c r="B71" s="47" t="s">
+      <c r="A71" s="51"/>
+      <c r="B71" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="C71" s="48">
+      <c r="C71" s="58">
         <f t="shared" si="2"/>
         <v>43392</v>
       </c>
-      <c r="D71" s="49" t="str">
+      <c r="D71" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E71" s="73" t="s">
+      <c r="E71" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="F71" s="74" t="s">
+      <c r="F71" s="84" t="s">
         <v>231</v>
       </c>
       <c r="G71" s="1"/>
@@ -47901,11 +47920,11 @@
       <c r="N71" s="1"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="41"/>
-      <c r="B72" s="41" t="s">
+      <c r="A72" s="51"/>
+      <c r="B72" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="C72" s="51">
+      <c r="C72" s="61">
         <f t="shared" si="2"/>
         <v>43395</v>
       </c>
@@ -47916,7 +47935,7 @@
       <c r="E72" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F72" s="52" t="s">
+      <c r="F72" s="62" t="s">
         <v>49</v>
       </c>
       <c r="G72" s="1"/>
@@ -47929,22 +47948,22 @@
       <c r="N72" s="1"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="41"/>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="51"/>
+      <c r="B73" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="C73" s="54">
+      <c r="C73" s="64">
         <f t="shared" si="2"/>
         <v>43397</v>
       </c>
-      <c r="D73" s="55" t="str">
+      <c r="D73" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E73" s="55" t="s">
+      <c r="E73" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="F73" s="56" t="s">
+      <c r="F73" s="66" t="s">
         <v>49</v>
       </c>
       <c r="G73" s="1"/>
@@ -47957,22 +47976,22 @@
       <c r="N73" s="1"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="41"/>
-      <c r="B74" s="47" t="s">
+      <c r="A74" s="51"/>
+      <c r="B74" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="C74" s="48">
+      <c r="C74" s="58">
         <f t="shared" si="2"/>
         <v>43399</v>
       </c>
-      <c r="D74" s="49" t="str">
+      <c r="D74" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E74" s="49" t="s">
+      <c r="E74" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="F74" s="50" t="s">
+      <c r="F74" s="60" t="s">
         <v>53</v>
       </c>
       <c r="G74" s="1"/>
@@ -47985,11 +48004,11 @@
       <c r="N74" s="1"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="41"/>
-      <c r="B75" s="41" t="s">
+      <c r="A75" s="51"/>
+      <c r="B75" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="C75" s="51">
+      <c r="C75" s="61">
         <f t="shared" si="2"/>
         <v>43402</v>
       </c>
@@ -48000,7 +48019,7 @@
       <c r="E75" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F75" s="52" t="s">
+      <c r="F75" s="62" t="s">
         <v>53</v>
       </c>
       <c r="G75" s="1"/>
@@ -48013,22 +48032,22 @@
       <c r="N75" s="1"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="41"/>
-      <c r="B76" s="53" t="s">
+      <c r="A76" s="51"/>
+      <c r="B76" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="C76" s="54">
+      <c r="C76" s="64">
         <f t="shared" si="2"/>
         <v>43404</v>
       </c>
-      <c r="D76" s="55" t="str">
+      <c r="D76" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E76" s="55" t="s">
+      <c r="E76" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F76" s="56" t="s">
+      <c r="F76" s="66" t="s">
         <v>57</v>
       </c>
       <c r="G76" s="1"/>
@@ -48041,22 +48060,22 @@
       <c r="N76" s="1"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="41"/>
-      <c r="B77" s="47" t="s">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C77" s="48">
+      <c r="C77" s="58">
         <f t="shared" si="2"/>
         <v>43406</v>
       </c>
-      <c r="D77" s="49" t="str">
+      <c r="D77" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E77" s="49" t="s">
+      <c r="E77" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F77" s="50" t="s">
+      <c r="F77" s="60" t="s">
         <v>57</v>
       </c>
       <c r="G77" s="1"/>
@@ -48069,11 +48088,11 @@
       <c r="N77" s="1"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="41"/>
-      <c r="B78" s="41" t="s">
+      <c r="A78" s="51"/>
+      <c r="B78" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="C78" s="51">
+      <c r="C78" s="61">
         <f t="shared" si="2"/>
         <v>43409</v>
       </c>
@@ -48084,7 +48103,7 @@
       <c r="E78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F78" s="52" t="s">
+      <c r="F78" s="62" t="s">
         <v>61</v>
       </c>
       <c r="G78" s="1"/>
@@ -48097,22 +48116,22 @@
       <c r="N78" s="1"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="41"/>
-      <c r="B79" s="53" t="s">
+      <c r="A79" s="51"/>
+      <c r="B79" s="63" t="s">
         <v>239</v>
       </c>
-      <c r="C79" s="54">
+      <c r="C79" s="64">
         <f t="shared" si="2"/>
         <v>43411</v>
       </c>
-      <c r="D79" s="55" t="str">
+      <c r="D79" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E79" s="55" t="s">
+      <c r="E79" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="F79" s="56" t="s">
+      <c r="F79" s="66" t="s">
         <v>61</v>
       </c>
       <c r="G79" s="1"/>
@@ -48125,22 +48144,22 @@
       <c r="N79" s="1"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="41"/>
-      <c r="B80" s="47" t="s">
+      <c r="A80" s="51"/>
+      <c r="B80" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="C80" s="48">
+      <c r="C80" s="58">
         <f t="shared" si="2"/>
         <v>43413</v>
       </c>
-      <c r="D80" s="49" t="str">
+      <c r="D80" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E80" s="49" t="s">
+      <c r="E80" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="F80" s="50" t="s">
+      <c r="F80" s="60" t="s">
         <v>65</v>
       </c>
       <c r="G80" s="1"/>
@@ -48153,11 +48172,11 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="41"/>
-      <c r="B81" s="41" t="s">
+      <c r="A81" s="51"/>
+      <c r="B81" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="51">
+      <c r="C81" s="61">
         <f t="shared" si="2"/>
         <v>43416</v>
       </c>
@@ -48165,10 +48184,10 @@
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E81" s="34" t="s">
+      <c r="E81" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="71" t="s">
+      <c r="F81" s="81" t="s">
         <v>243</v>
       </c>
       <c r="G81" s="1"/>
@@ -48181,22 +48200,22 @@
       <c r="N81" s="1"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="41"/>
-      <c r="B82" s="53" t="s">
+      <c r="A82" s="51"/>
+      <c r="B82" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="54">
+      <c r="C82" s="64">
         <f t="shared" si="2"/>
         <v>43418</v>
       </c>
-      <c r="D82" s="55" t="str">
+      <c r="D82" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E82" s="90" t="s">
+      <c r="E82" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="F82" s="91" t="s">
+      <c r="F82" s="101" t="s">
         <v>75</v>
       </c>
       <c r="G82" s="1"/>
@@ -48209,24 +48228,24 @@
       <c r="N82" s="1"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="47" t="s">
+      <c r="B83" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="C83" s="48">
+      <c r="C83" s="58">
         <f t="shared" si="2"/>
         <v>43420</v>
       </c>
-      <c r="D83" s="49" t="str">
+      <c r="D83" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E83" s="49" t="s">
+      <c r="E83" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F83" s="50" t="s">
+      <c r="F83" s="60" t="s">
         <v>247</v>
       </c>
       <c r="G83" s="1"/>
@@ -48239,11 +48258,11 @@
       <c r="N83" s="1"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="63"/>
-      <c r="B84" s="41" t="s">
+      <c r="A84" s="73"/>
+      <c r="B84" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C84" s="61">
         <f t="shared" si="2"/>
         <v>43423</v>
       </c>
@@ -48254,7 +48273,7 @@
       <c r="E84" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F84" s="52" t="s">
+      <c r="F84" s="62" t="s">
         <v>247</v>
       </c>
       <c r="G84" s="1"/>
@@ -48267,22 +48286,22 @@
       <c r="N84" s="1"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="63"/>
-      <c r="B85" s="53" t="s">
+      <c r="A85" s="73"/>
+      <c r="B85" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="C85" s="54">
+      <c r="C85" s="64">
         <f t="shared" si="2"/>
         <v>43425</v>
       </c>
-      <c r="D85" s="55" t="str">
+      <c r="D85" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E85" s="55" t="s">
+      <c r="E85" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="F85" s="56" t="s">
+      <c r="F85" s="66" t="s">
         <v>251</v>
       </c>
       <c r="G85" s="1"/>
@@ -48295,22 +48314,22 @@
       <c r="N85" s="1"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="63"/>
-      <c r="B86" s="47" t="s">
+      <c r="A86" s="73"/>
+      <c r="B86" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="C86" s="48">
+      <c r="C86" s="58">
         <f t="shared" si="2"/>
         <v>43427</v>
       </c>
-      <c r="D86" s="49" t="str">
+      <c r="D86" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E86" s="49" t="s">
+      <c r="E86" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="F86" s="50" t="s">
+      <c r="F86" s="60" t="s">
         <v>251</v>
       </c>
       <c r="G86" s="1"/>
@@ -48323,11 +48342,11 @@
       <c r="N86" s="1"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="63"/>
-      <c r="B87" s="41" t="s">
+      <c r="A87" s="73"/>
+      <c r="B87" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="C87" s="51">
+      <c r="C87" s="61">
         <f t="shared" si="2"/>
         <v>43430</v>
       </c>
@@ -48338,7 +48357,7 @@
       <c r="E87" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F87" s="52" t="s">
+      <c r="F87" s="62" t="s">
         <v>254</v>
       </c>
       <c r="G87" s="1"/>
@@ -48351,22 +48370,22 @@
       <c r="N87" s="1"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="64"/>
-      <c r="B88" s="53" t="s">
+      <c r="A88" s="74"/>
+      <c r="B88" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="C88" s="54">
+      <c r="C88" s="64">
         <f t="shared" si="2"/>
         <v>43432</v>
       </c>
-      <c r="D88" s="55" t="str">
+      <c r="D88" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E88" s="55" t="s">
+      <c r="E88" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="F88" s="56" t="s">
+      <c r="F88" s="66" t="s">
         <v>254</v>
       </c>
       <c r="G88" s="1"/>
@@ -48379,22 +48398,22 @@
       <c r="N88" s="1"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="41"/>
-      <c r="B89" s="47" t="s">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C89" s="48">
+      <c r="C89" s="58">
         <f t="shared" si="2"/>
         <v>43434</v>
       </c>
-      <c r="D89" s="49" t="str">
+      <c r="D89" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E89" s="49" t="s">
+      <c r="E89" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="60" t="s">
         <v>257</v>
       </c>
       <c r="G89" s="1"/>
@@ -48407,11 +48426,11 @@
       <c r="N89" s="1"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="41"/>
-      <c r="B90" s="41" t="s">
+      <c r="A90" s="51"/>
+      <c r="B90" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="C90" s="51">
+      <c r="C90" s="61">
         <f t="shared" si="2"/>
         <v>43437</v>
       </c>
@@ -48422,7 +48441,7 @@
       <c r="E90" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F90" s="52" t="s">
+      <c r="F90" s="62" t="s">
         <v>257</v>
       </c>
       <c r="G90" s="1"/>
@@ -48435,22 +48454,22 @@
       <c r="N90" s="1"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="41"/>
-      <c r="B91" s="53" t="s">
+      <c r="A91" s="51"/>
+      <c r="B91" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="C91" s="54">
+      <c r="C91" s="64">
         <f t="shared" si="2"/>
         <v>43439</v>
       </c>
-      <c r="D91" s="55" t="str">
+      <c r="D91" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E91" s="55" t="s">
+      <c r="E91" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="F91" s="56" t="s">
+      <c r="F91" s="66" t="s">
         <v>260</v>
       </c>
       <c r="G91" s="1"/>
@@ -48463,22 +48482,22 @@
       <c r="N91" s="1"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="41"/>
-      <c r="B92" s="47" t="s">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="C92" s="48">
+      <c r="C92" s="58">
         <f t="shared" si="2"/>
         <v>43441</v>
       </c>
-      <c r="D92" s="49" t="str">
+      <c r="D92" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E92" s="73" t="s">
+      <c r="E92" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="F92" s="74" t="s">
+      <c r="F92" s="84" t="s">
         <v>263</v>
       </c>
       <c r="G92" s="1"/>
@@ -48491,11 +48510,11 @@
       <c r="N92" s="1"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="41"/>
-      <c r="B93" s="41" t="s">
+      <c r="A93" s="51"/>
+      <c r="B93" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="C93" s="51">
+      <c r="C93" s="61">
         <f t="shared" si="2"/>
         <v>43444</v>
       </c>
@@ -48506,7 +48525,7 @@
       <c r="E93" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F93" s="52" t="s">
+      <c r="F93" s="62" t="s">
         <v>265</v>
       </c>
       <c r="G93" s="1"/>
@@ -48519,22 +48538,22 @@
       <c r="N93" s="1"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="41"/>
-      <c r="B94" s="53" t="s">
+      <c r="A94" s="51"/>
+      <c r="B94" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="C94" s="54">
+      <c r="C94" s="64">
         <f t="shared" si="2"/>
         <v>43446</v>
       </c>
-      <c r="D94" s="55" t="str">
+      <c r="D94" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E94" s="55" t="s">
+      <c r="E94" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="F94" s="56" t="s">
+      <c r="F94" s="66" t="s">
         <v>265</v>
       </c>
       <c r="G94" s="1"/>
@@ -48547,22 +48566,22 @@
       <c r="N94" s="1"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="41"/>
-      <c r="B95" s="47" t="s">
+      <c r="A95" s="51"/>
+      <c r="B95" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="C95" s="48">
+      <c r="C95" s="58">
         <f t="shared" si="2"/>
         <v>43448</v>
       </c>
-      <c r="D95" s="49" t="str">
+      <c r="D95" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E95" s="49" t="s">
+      <c r="E95" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="F95" s="50" t="s">
+      <c r="F95" s="60" t="s">
         <v>268</v>
       </c>
       <c r="G95" s="1"/>
@@ -48575,11 +48594,11 @@
       <c r="N95" s="1"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="41"/>
-      <c r="B96" s="41" t="s">
+      <c r="A96" s="51"/>
+      <c r="B96" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C96" s="51">
+      <c r="C96" s="61">
         <f t="shared" si="2"/>
         <v>43451</v>
       </c>
@@ -48590,7 +48609,7 @@
       <c r="E96" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F96" s="52" t="s">
+      <c r="F96" s="62" t="s">
         <v>268</v>
       </c>
       <c r="G96" s="1"/>
@@ -48603,22 +48622,22 @@
       <c r="N96" s="1"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="41"/>
-      <c r="B97" s="53" t="s">
+      <c r="A97" s="51"/>
+      <c r="B97" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="C97" s="54">
+      <c r="C97" s="64">
         <f t="shared" si="2"/>
         <v>43453</v>
       </c>
-      <c r="D97" s="55" t="str">
+      <c r="D97" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E97" s="55" t="s">
+      <c r="E97" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="F97" s="56" t="s">
+      <c r="F97" s="66" t="s">
         <v>271</v>
       </c>
       <c r="G97" s="1"/>
@@ -48631,22 +48650,22 @@
       <c r="N97" s="1"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="41"/>
-      <c r="B98" s="47" t="s">
+      <c r="A98" s="51"/>
+      <c r="B98" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="C98" s="48">
+      <c r="C98" s="58">
         <f t="shared" si="2"/>
         <v>43455</v>
       </c>
-      <c r="D98" s="49" t="str">
+      <c r="D98" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E98" s="49" t="s">
+      <c r="E98" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="F98" s="50" t="s">
+      <c r="F98" s="60" t="s">
         <v>271</v>
       </c>
       <c r="G98" s="1"/>
@@ -48659,11 +48678,11 @@
       <c r="N98" s="1"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="41"/>
-      <c r="B99" s="41" t="s">
+      <c r="A99" s="51"/>
+      <c r="B99" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="C99" s="51">
+      <c r="C99" s="61">
         <f t="shared" si="2"/>
         <v>43458</v>
       </c>
@@ -48674,7 +48693,7 @@
       <c r="E99" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F99" s="52" t="s">
+      <c r="F99" s="62" t="s">
         <v>274</v>
       </c>
       <c r="G99" s="1"/>
@@ -48687,22 +48706,22 @@
       <c r="N99" s="1"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="41"/>
-      <c r="B100" s="53" t="s">
+      <c r="A100" s="51"/>
+      <c r="B100" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="C100" s="54">
+      <c r="C100" s="64">
         <f t="shared" si="2"/>
         <v>43460</v>
       </c>
-      <c r="D100" s="55" t="str">
+      <c r="D100" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E100" s="55" t="s">
+      <c r="E100" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="F100" s="56" t="s">
+      <c r="F100" s="66" t="s">
         <v>274</v>
       </c>
       <c r="G100" s="1"/>
@@ -48715,22 +48734,22 @@
       <c r="N100" s="1"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="41"/>
-      <c r="B101" s="47" t="s">
+      <c r="A101" s="51"/>
+      <c r="B101" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="C101" s="48">
+      <c r="C101" s="58">
         <f t="shared" si="2"/>
         <v>43462</v>
       </c>
-      <c r="D101" s="49" t="str">
+      <c r="D101" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E101" s="49" t="s">
+      <c r="E101" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="F101" s="50" t="s">
+      <c r="F101" s="60" t="s">
         <v>277</v>
       </c>
       <c r="G101" s="1"/>
@@ -48743,11 +48762,11 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="41"/>
-      <c r="B102" s="41" t="s">
+      <c r="A102" s="51"/>
+      <c r="B102" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="C102" s="51">
+      <c r="C102" s="61">
         <f t="shared" si="2"/>
         <v>43465</v>
       </c>
@@ -48755,10 +48774,10 @@
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E102" s="34" t="s">
+      <c r="E102" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F102" s="71" t="s">
+      <c r="F102" s="81" t="s">
         <v>280</v>
       </c>
       <c r="G102" s="1"/>
@@ -48771,22 +48790,22 @@
       <c r="N102" s="1"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="41"/>
-      <c r="B103" s="53" t="s">
+      <c r="A103" s="51"/>
+      <c r="B103" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="C103" s="54">
+      <c r="C103" s="64">
         <f t="shared" si="2"/>
         <v>43467</v>
       </c>
-      <c r="D103" s="55" t="str">
+      <c r="D103" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E103" s="92" t="s">
+      <c r="E103" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="F103" s="93" t="s">
+      <c r="F103" s="103" t="s">
         <v>282</v>
       </c>
       <c r="G103" s="1"/>
@@ -48799,22 +48818,22 @@
       <c r="N103" s="1"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="41"/>
-      <c r="B104" s="47" t="s">
+      <c r="A104" s="51"/>
+      <c r="B104" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="C104" s="48">
+      <c r="C104" s="58">
         <f t="shared" si="2"/>
         <v>43469</v>
       </c>
-      <c r="D104" s="49" t="str">
+      <c r="D104" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E104" s="49" t="s">
+      <c r="E104" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="F104" s="50" t="s">
+      <c r="F104" s="60" t="s">
         <v>284</v>
       </c>
       <c r="G104" s="1"/>
@@ -48827,11 +48846,11 @@
       <c r="N104" s="1"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="41"/>
-      <c r="B105" s="41" t="s">
+      <c r="A105" s="51"/>
+      <c r="B105" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="C105" s="51">
+      <c r="C105" s="61">
         <f t="shared" si="2"/>
         <v>43472</v>
       </c>
@@ -48842,7 +48861,7 @@
       <c r="E105" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F105" s="52" t="s">
+      <c r="F105" s="62" t="s">
         <v>284</v>
       </c>
       <c r="G105" s="1"/>
@@ -48855,22 +48874,22 @@
       <c r="N105" s="1"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="41"/>
-      <c r="B106" s="53" t="s">
+      <c r="A106" s="51"/>
+      <c r="B106" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="C106" s="54">
+      <c r="C106" s="64">
         <f t="shared" si="2"/>
         <v>43474</v>
       </c>
-      <c r="D106" s="55" t="str">
+      <c r="D106" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E106" s="55" t="s">
+      <c r="E106" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="F106" s="56" t="s">
+      <c r="F106" s="66" t="s">
         <v>287</v>
       </c>
       <c r="G106" s="1"/>
@@ -48883,22 +48902,22 @@
       <c r="N106" s="1"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="41"/>
-      <c r="B107" s="47" t="s">
+      <c r="A107" s="51"/>
+      <c r="B107" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="C107" s="48">
+      <c r="C107" s="58">
         <f t="shared" si="2"/>
         <v>43476</v>
       </c>
-      <c r="D107" s="49" t="str">
+      <c r="D107" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E107" s="49" t="s">
+      <c r="E107" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="F107" s="50" t="s">
+      <c r="F107" s="60" t="s">
         <v>287</v>
       </c>
       <c r="G107" s="1"/>
@@ -48911,11 +48930,11 @@
       <c r="N107" s="1"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="41"/>
-      <c r="B108" s="41" t="s">
+      <c r="A108" s="51"/>
+      <c r="B108" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="C108" s="51">
+      <c r="C108" s="61">
         <f t="shared" si="2"/>
         <v>43479</v>
       </c>
@@ -48923,10 +48942,10 @@
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E108" s="69" t="s">
+      <c r="E108" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="F108" s="70" t="s">
+      <c r="F108" s="80" t="s">
         <v>290</v>
       </c>
       <c r="G108" s="1"/>
@@ -48939,22 +48958,22 @@
       <c r="N108" s="1"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="41"/>
-      <c r="B109" s="53" t="s">
+      <c r="A109" s="51"/>
+      <c r="B109" s="63" t="s">
         <v>291</v>
       </c>
-      <c r="C109" s="54">
+      <c r="C109" s="64">
         <f t="shared" si="2"/>
         <v>43481</v>
       </c>
-      <c r="D109" s="55" t="str">
+      <c r="D109" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E109" s="75" t="s">
+      <c r="E109" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="F109" s="76" t="s">
+      <c r="F109" s="86" t="s">
         <v>290</v>
       </c>
       <c r="G109" s="1"/>
@@ -48967,22 +48986,22 @@
       <c r="N109" s="1"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="41"/>
-      <c r="B110" s="47" t="s">
+      <c r="A110" s="51"/>
+      <c r="B110" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="C110" s="48">
+      <c r="C110" s="58">
         <f t="shared" si="2"/>
         <v>43483</v>
       </c>
-      <c r="D110" s="49" t="str">
+      <c r="D110" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E110" s="65" t="s">
+      <c r="E110" s="75" t="s">
         <v>293</v>
       </c>
-      <c r="F110" s="94" t="s">
+      <c r="F110" s="104" t="s">
         <v>293</v>
       </c>
       <c r="G110" s="1"/>
@@ -48995,11 +49014,11 @@
       <c r="N110" s="1"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="41"/>
-      <c r="B111" s="41" t="s">
+      <c r="A111" s="51"/>
+      <c r="B111" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="C111" s="51">
+      <c r="C111" s="61">
         <f t="shared" si="2"/>
         <v>43486</v>
       </c>
@@ -49007,10 +49026,10 @@
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E111" s="34" t="s">
+      <c r="E111" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="F111" s="71" t="s">
+      <c r="F111" s="81" t="s">
         <v>296</v>
       </c>
       <c r="G111" s="1"/>
@@ -49023,22 +49042,22 @@
       <c r="N111" s="1"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="41"/>
-      <c r="B112" s="53" t="s">
+      <c r="A112" s="51"/>
+      <c r="B112" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="C112" s="54">
+      <c r="C112" s="64">
         <f t="shared" si="2"/>
         <v>43488</v>
       </c>
-      <c r="D112" s="55" t="str">
+      <c r="D112" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E112" s="57" t="s">
+      <c r="E112" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="F112" s="72" t="s">
+      <c r="F112" s="82" t="s">
         <v>299</v>
       </c>
       <c r="G112" s="1"/>
@@ -49051,22 +49070,22 @@
       <c r="N112" s="1"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="41"/>
-      <c r="B113" s="47" t="s">
+      <c r="A113" s="51"/>
+      <c r="B113" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="C113" s="48">
+      <c r="C113" s="58">
         <f t="shared" si="2"/>
         <v>43490</v>
       </c>
-      <c r="D113" s="49" t="str">
+      <c r="D113" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E113" s="73" t="s">
+      <c r="E113" s="83" t="s">
         <v>301</v>
       </c>
-      <c r="F113" s="74" t="s">
+      <c r="F113" s="84" t="s">
         <v>302</v>
       </c>
       <c r="G113" s="1"/>
@@ -49079,11 +49098,11 @@
       <c r="N113" s="1"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="41"/>
-      <c r="B114" s="41" t="s">
+      <c r="A114" s="51"/>
+      <c r="B114" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="C114" s="51">
+      <c r="C114" s="61">
         <f t="shared" si="2"/>
         <v>43493</v>
       </c>
@@ -49091,10 +49110,10 @@
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E114" s="34" t="s">
+      <c r="E114" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="F114" s="71" t="s">
+      <c r="F114" s="81" t="s">
         <v>304</v>
       </c>
       <c r="G114" s="1"/>
@@ -49107,22 +49126,22 @@
       <c r="N114" s="1"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="41"/>
-      <c r="B115" s="53" t="s">
+      <c r="A115" s="51"/>
+      <c r="B115" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="C115" s="54">
+      <c r="C115" s="64">
         <f t="shared" si="2"/>
         <v>43495</v>
       </c>
-      <c r="D115" s="55" t="str">
+      <c r="D115" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E115" s="57" t="s">
+      <c r="E115" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="F115" s="72" t="s">
+      <c r="F115" s="82" t="s">
         <v>305</v>
       </c>
       <c r="G115" s="1"/>
@@ -49135,22 +49154,22 @@
       <c r="N115" s="1"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="41"/>
-      <c r="B116" s="47" t="s">
+      <c r="A116" s="51"/>
+      <c r="B116" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="C116" s="48">
+      <c r="C116" s="58">
         <f t="shared" si="2"/>
         <v>43497</v>
       </c>
-      <c r="D116" s="49" t="str">
+      <c r="D116" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E116" s="73" t="s">
+      <c r="E116" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="F116" s="74" t="s">
+      <c r="F116" s="84" t="s">
         <v>309</v>
       </c>
       <c r="G116" s="1"/>
@@ -49163,11 +49182,11 @@
       <c r="N116" s="1"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="41"/>
-      <c r="B117" s="41" t="s">
+      <c r="A117" s="51"/>
+      <c r="B117" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="C117" s="51">
+      <c r="C117" s="61">
         <f t="shared" si="2"/>
         <v>43500</v>
       </c>
@@ -49175,10 +49194,10 @@
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E117" s="69" t="s">
+      <c r="E117" s="79" t="s">
         <v>311</v>
       </c>
-      <c r="F117" s="70" t="s">
+      <c r="F117" s="80" t="s">
         <v>311</v>
       </c>
       <c r="G117" s="1"/>
@@ -49191,22 +49210,22 @@
       <c r="N117" s="1"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="41"/>
-      <c r="B118" s="53" t="s">
+      <c r="A118" s="51"/>
+      <c r="B118" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="C118" s="54">
+      <c r="C118" s="64">
         <f t="shared" si="2"/>
         <v>43502</v>
       </c>
-      <c r="D118" s="55" t="str">
+      <c r="D118" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E118" s="81" t="s">
+      <c r="E118" s="91" t="s">
         <v>313</v>
       </c>
-      <c r="F118" s="82" t="s">
+      <c r="F118" s="92" t="s">
         <v>314</v>
       </c>
       <c r="G118" s="1"/>
@@ -49219,22 +49238,22 @@
       <c r="N118" s="1"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="41"/>
-      <c r="B119" s="47" t="s">
+      <c r="A119" s="51"/>
+      <c r="B119" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="C119" s="48">
+      <c r="C119" s="58">
         <f t="shared" si="2"/>
         <v>43504</v>
       </c>
-      <c r="D119" s="49" t="str">
+      <c r="D119" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E119" s="77" t="s">
+      <c r="E119" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="F119" s="78" t="s">
+      <c r="F119" s="88" t="s">
         <v>314</v>
       </c>
       <c r="G119" s="1"/>
@@ -49247,11 +49266,11 @@
       <c r="N119" s="1"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="41"/>
-      <c r="B120" s="41" t="s">
+      <c r="A120" s="51"/>
+      <c r="B120" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="C120" s="51">
+      <c r="C120" s="61">
         <f t="shared" si="2"/>
         <v>43507</v>
       </c>
@@ -49262,7 +49281,7 @@
       <c r="E120" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F120" s="52" t="s">
+      <c r="F120" s="62" t="s">
         <v>318</v>
       </c>
       <c r="G120" s="1"/>
@@ -49275,22 +49294,22 @@
       <c r="N120" s="1"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="41"/>
-      <c r="B121" s="53" t="s">
+      <c r="A121" s="51"/>
+      <c r="B121" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="C121" s="54">
+      <c r="C121" s="64">
         <f t="shared" si="2"/>
         <v>43509</v>
       </c>
-      <c r="D121" s="55" t="str">
+      <c r="D121" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E121" s="55" t="s">
+      <c r="E121" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="F121" s="56" t="s">
+      <c r="F121" s="66" t="s">
         <v>318</v>
       </c>
       <c r="G121" s="1"/>
@@ -49303,22 +49322,22 @@
       <c r="N121" s="1"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="41"/>
-      <c r="B122" s="47" t="s">
+      <c r="A122" s="51"/>
+      <c r="B122" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="C122" s="48">
+      <c r="C122" s="58">
         <f t="shared" si="2"/>
         <v>43511</v>
       </c>
-      <c r="D122" s="49" t="str">
+      <c r="D122" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E122" s="49" t="s">
+      <c r="E122" s="59" t="s">
         <v>321</v>
       </c>
-      <c r="F122" s="50" t="s">
+      <c r="F122" s="60" t="s">
         <v>322</v>
       </c>
       <c r="G122" s="1"/>
@@ -49331,11 +49350,11 @@
       <c r="N122" s="1"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="41"/>
-      <c r="B123" s="41" t="s">
+      <c r="A123" s="51"/>
+      <c r="B123" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="C123" s="51">
+      <c r="C123" s="61">
         <f t="shared" si="2"/>
         <v>43514</v>
       </c>
@@ -49346,7 +49365,7 @@
       <c r="E123" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F123" s="52" t="s">
+      <c r="F123" s="62" t="s">
         <v>322</v>
       </c>
       <c r="G123" s="1"/>
@@ -49359,22 +49378,22 @@
       <c r="N123" s="1"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="41"/>
-      <c r="B124" s="53" t="s">
+      <c r="A124" s="51"/>
+      <c r="B124" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="C124" s="54">
+      <c r="C124" s="64">
         <f t="shared" si="2"/>
         <v>43516</v>
       </c>
-      <c r="D124" s="55" t="str">
+      <c r="D124" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E124" s="57" t="s">
+      <c r="E124" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="F124" s="72" t="s">
+      <c r="F124" s="82" t="s">
         <v>325</v>
       </c>
       <c r="G124" s="1"/>
@@ -49387,22 +49406,22 @@
       <c r="N124" s="1"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="41"/>
-      <c r="B125" s="47" t="s">
+      <c r="A125" s="51"/>
+      <c r="B125" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="C125" s="48">
+      <c r="C125" s="58">
         <f t="shared" si="2"/>
         <v>43518</v>
       </c>
-      <c r="D125" s="49" t="str">
+      <c r="D125" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E125" s="73" t="s">
+      <c r="E125" s="83" t="s">
         <v>325</v>
       </c>
-      <c r="F125" s="74" t="s">
+      <c r="F125" s="84" t="s">
         <v>325</v>
       </c>
       <c r="G125" s="1"/>
@@ -49415,11 +49434,11 @@
       <c r="N125" s="1"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="41"/>
-      <c r="B126" s="41" t="s">
+      <c r="A126" s="51"/>
+      <c r="B126" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="C126" s="51">
+      <c r="C126" s="61">
         <f t="shared" si="2"/>
         <v>43521</v>
       </c>
@@ -49427,10 +49446,10 @@
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E126" s="79" t="s">
+      <c r="E126" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="F126" s="80" t="s">
+      <c r="F126" s="90" t="s">
         <v>329</v>
       </c>
       <c r="G126" s="1"/>
@@ -49443,22 +49462,22 @@
       <c r="N126" s="1"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="41"/>
-      <c r="B127" s="53" t="s">
+      <c r="A127" s="51"/>
+      <c r="B127" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="C127" s="54">
+      <c r="C127" s="64">
         <f t="shared" si="2"/>
         <v>43523</v>
       </c>
-      <c r="D127" s="55" t="str">
+      <c r="D127" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E127" s="81" t="s">
+      <c r="E127" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="F127" s="82" t="s">
+      <c r="F127" s="92" t="s">
         <v>329</v>
       </c>
       <c r="G127" s="1"/>
@@ -49471,22 +49490,22 @@
       <c r="N127" s="1"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="41"/>
-      <c r="B128" s="47" t="s">
+      <c r="A128" s="51"/>
+      <c r="B128" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="C128" s="48">
+      <c r="C128" s="58">
         <f t="shared" si="2"/>
         <v>43525</v>
       </c>
-      <c r="D128" s="49" t="str">
+      <c r="D128" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E128" s="67" t="s">
+      <c r="E128" s="77" t="s">
         <v>332</v>
       </c>
-      <c r="F128" s="68" t="s">
+      <c r="F128" s="78" t="s">
         <v>333</v>
       </c>
       <c r="G128" s="1"/>
@@ -49499,11 +49518,11 @@
       <c r="N128" s="1"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="41"/>
-      <c r="B129" s="41" t="s">
+      <c r="A129" s="51"/>
+      <c r="B129" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="C129" s="51">
+      <c r="C129" s="61">
         <f t="shared" si="2"/>
         <v>43528</v>
       </c>
@@ -49511,10 +49530,10 @@
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E129" s="69" t="s">
+      <c r="E129" s="79" t="s">
         <v>333</v>
       </c>
-      <c r="F129" s="70" t="s">
+      <c r="F129" s="80" t="s">
         <v>333</v>
       </c>
       <c r="G129" s="1"/>
@@ -49527,22 +49546,22 @@
       <c r="N129" s="1"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="41"/>
-      <c r="B130" s="53" t="s">
+      <c r="A130" s="51"/>
+      <c r="B130" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="C130" s="54">
+      <c r="C130" s="64">
         <f t="shared" si="2"/>
         <v>43530</v>
       </c>
-      <c r="D130" s="55" t="str">
+      <c r="D130" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E130" s="57" t="s">
+      <c r="E130" s="67" t="s">
         <v>336</v>
       </c>
-      <c r="F130" s="72" t="s">
+      <c r="F130" s="82" t="s">
         <v>336</v>
       </c>
       <c r="G130" s="1"/>
@@ -49555,22 +49574,22 @@
       <c r="N130" s="1"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="41"/>
-      <c r="B131" s="47" t="s">
+      <c r="A131" s="51"/>
+      <c r="B131" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="C131" s="48">
+      <c r="C131" s="58">
         <f t="shared" si="2"/>
         <v>43532</v>
       </c>
-      <c r="D131" s="49" t="str">
+      <c r="D131" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="E131" s="73" t="s">
+      <c r="E131" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="F131" s="74" t="s">
+      <c r="F131" s="84" t="s">
         <v>338</v>
       </c>
       <c r="G131" s="1"/>
@@ -49583,11 +49602,11 @@
       <c r="N131" s="1"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="41"/>
-      <c r="B132" s="41" t="s">
+      <c r="A132" s="51"/>
+      <c r="B132" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="C132" s="51">
+      <c r="C132" s="61">
         <f t="shared" si="2"/>
         <v>43535</v>
       </c>
@@ -49595,10 +49614,10 @@
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="E132" s="31" t="s">
+      <c r="E132" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="F132" s="95" t="s">
+      <c r="F132" s="105" t="s">
         <v>340</v>
       </c>
       <c r="G132" s="1"/>
@@ -49611,22 +49630,22 @@
       <c r="N132" s="1"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="53"/>
-      <c r="B133" s="53" t="s">
+      <c r="A133" s="63"/>
+      <c r="B133" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="C133" s="54">
+      <c r="C133" s="64">
         <f t="shared" si="2"/>
         <v>43537</v>
       </c>
-      <c r="D133" s="55" t="str">
+      <c r="D133" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="E133" s="83" t="s">
+      <c r="E133" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="F133" s="84" t="s">
+      <c r="F133" s="94" t="s">
         <v>340</v>
       </c>
       <c r="G133" s="1"/>
@@ -49655,7 +49674,7 @@
       <c r="N134" s="1"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="31" t="s">
+      <c r="A135" s="41" t="s">
         <v>342</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -49698,7 +49717,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
-      <c r="B137" s="87" t="s">
+      <c r="B137" s="97" t="s">
         <v>343</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -49718,7 +49737,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
-      <c r="B138" s="33" t="s">
+      <c r="B138" s="43" t="s">
         <v>82</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -49798,7 +49817,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="34" t="s">
+      <c r="B142" s="44" t="s">
         <v>349</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -49838,7 +49857,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
-      <c r="B144" s="69" t="s">
+      <c r="B144" s="79" t="s">
         <v>353</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -49878,7 +49897,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
-      <c r="B146" s="79" t="s">
+      <c r="B146" s="89" t="s">
         <v>357</v>
       </c>
       <c r="C146" s="1" t="s">
